--- a/assets/metadata/latest/PancDB_Donors.xlsx
+++ b/assets/metadata/latest/PancDB_Donors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsamanta\Box\HPAP-IBI\Pancdb-Metadata\current_v2.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsamanta\Box\HPAP-IBI\Pancdb-Metadata\current_v2.1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28080950-6679-4459-A190-D2545B153781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315C41D-6BAB-4B9C-BCA3-897ED90556E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7670" yWindow="1330" windowWidth="28800" windowHeight="18690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15440" yWindow="1500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donors" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,35 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Donors!$E$1:$E$66</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="445">
   <si>
     <t xml:space="preserve">DonorID </t>
   </si>
   <si>
+    <t>RRID#</t>
+  </si>
+  <si>
     <t>SampleSex</t>
   </si>
   <si>
@@ -60,27 +74,42 @@
     <t>HPAP-001</t>
   </si>
   <si>
+    <t>RRID:SAMN18741978</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>47yo</t>
   </si>
   <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
     <t>T2DM (18 yrs Gastric  Bypass)</t>
   </si>
   <si>
     <t>UC4 DK112217</t>
   </si>
   <si>
+    <t>UPenn</t>
+  </si>
+  <si>
     <t>est 11/1/16</t>
   </si>
   <si>
     <t>HPAP-002</t>
   </si>
   <si>
+    <t>RRID:SAMN19763626</t>
+  </si>
+  <si>
     <t>26yo</t>
   </si>
   <si>
+    <t>Hispanic (MX)</t>
+  </si>
+  <si>
     <t>T1DM (5 yrs duration)</t>
   </si>
   <si>
@@ -93,6 +122,9 @@
     <t>HPAP-003</t>
   </si>
   <si>
+    <t>RRID:SAMN18741941</t>
+  </si>
+  <si>
     <t>29yo</t>
   </si>
   <si>
@@ -105,12 +137,18 @@
     <t>HPAP-004</t>
   </si>
   <si>
+    <t>RRID:SAMN19776437</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
     <t>24yo</t>
   </si>
   <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
     <t>No HX DIAB (Asthma)</t>
   </si>
   <si>
@@ -120,15 +158,24 @@
     <t>HPAP-005</t>
   </si>
   <si>
+    <t>RRID:SAMN19776438</t>
+  </si>
+  <si>
     <t>14yo</t>
   </si>
   <si>
+    <t>African american/Black</t>
+  </si>
+  <si>
     <t>est 1/30/17</t>
   </si>
   <si>
     <t>HPAP-006</t>
   </si>
   <si>
+    <t>RRID:SAMN19776439</t>
+  </si>
+  <si>
     <t>46yo</t>
   </si>
   <si>
@@ -138,6 +185,9 @@
     <t>HPAP-007</t>
   </si>
   <si>
+    <t>RRID:SAMN18741979</t>
+  </si>
+  <si>
     <t>65yo</t>
   </si>
   <si>
@@ -150,12 +200,18 @@
     <t>HPAP-008</t>
   </si>
   <si>
+    <t>RRID:SAMN19776440</t>
+  </si>
+  <si>
     <t>est 4/19/17</t>
   </si>
   <si>
     <t>HPAP-009</t>
   </si>
   <si>
+    <t>RRID:SAMN19776441</t>
+  </si>
+  <si>
     <t>3yo</t>
   </si>
   <si>
@@ -165,6 +221,9 @@
     <t>HPAP-010</t>
   </si>
   <si>
+    <t>RRID:SAMN19776442</t>
+  </si>
+  <si>
     <t>42yo</t>
   </si>
   <si>
@@ -177,12 +236,18 @@
     <t>HPAP-011</t>
   </si>
   <si>
+    <t>RRID:SAMN19776443</t>
+  </si>
+  <si>
     <t>est 6/28/17</t>
   </si>
   <si>
     <t>HPAP-012</t>
   </si>
   <si>
+    <t>RRID:SAMN19776444</t>
+  </si>
+  <si>
     <t>18yo</t>
   </si>
   <si>
@@ -192,6 +257,9 @@
     <t>HPAP-013</t>
   </si>
   <si>
+    <t>RRID:SAMN19776445</t>
+  </si>
+  <si>
     <t>28yo</t>
   </si>
   <si>
@@ -204,6 +272,9 @@
     <t>HPAP-014</t>
   </si>
   <si>
+    <t>RRID:SAMN19776446</t>
+  </si>
+  <si>
     <t>43yo</t>
   </si>
   <si>
@@ -213,6 +284,9 @@
     <t>HPAP-015</t>
   </si>
   <si>
+    <t>RRID:SAMN18741942</t>
+  </si>
+  <si>
     <t>T1DM (7 yrs duration)</t>
   </si>
   <si>
@@ -222,6 +296,9 @@
     <t>HPAP-016</t>
   </si>
   <si>
+    <t>RRID:SAMN19776447</t>
+  </si>
+  <si>
     <t>30yo</t>
   </si>
   <si>
@@ -231,12 +308,18 @@
     <t>HPAP-017</t>
   </si>
   <si>
+    <t>RRID:SAMN19776448</t>
+  </si>
+  <si>
     <t>est 9/20/17</t>
   </si>
   <si>
     <t>HPAP-018</t>
   </si>
   <si>
+    <t>RRID:SAMN19776449</t>
+  </si>
+  <si>
     <t>31yo</t>
   </si>
   <si>
@@ -246,6 +329,9 @@
     <t>HPAP-019</t>
   </si>
   <si>
+    <t>RRID:SAMN19776450</t>
+  </si>
+  <si>
     <t>22yo</t>
   </si>
   <si>
@@ -255,6 +341,9 @@
     <t>HPAP-020</t>
   </si>
   <si>
+    <t>RRID:SAMN19776451</t>
+  </si>
+  <si>
     <t>Recent T1DM (Unsuspected)</t>
   </si>
   <si>
@@ -264,6 +353,9 @@
     <t>HPAP-021</t>
   </si>
   <si>
+    <t>RRID:SAMN19776452</t>
+  </si>
+  <si>
     <t>13yo</t>
   </si>
   <si>
@@ -273,6 +365,9 @@
     <t>HPAP-022</t>
   </si>
   <si>
+    <t>RRID:SAMN19776453</t>
+  </si>
+  <si>
     <t>39yo</t>
   </si>
   <si>
@@ -282,6 +377,9 @@
     <t>HPAP-023</t>
   </si>
   <si>
+    <t>RRID:SAMN19776454</t>
+  </si>
+  <si>
     <t>17yo</t>
   </si>
   <si>
@@ -291,12 +389,18 @@
     <t>HPAP-024</t>
   </si>
   <si>
+    <t>RRID:SAMN19776455</t>
+  </si>
+  <si>
     <t>est 4/12/18</t>
   </si>
   <si>
     <t>HPAP-025</t>
   </si>
   <si>
+    <t>RRID:SAMN19776456</t>
+  </si>
+  <si>
     <t>T1DM (14 yrs duration)</t>
   </si>
   <si>
@@ -306,12 +410,21 @@
     <t>HPAP-026</t>
   </si>
   <si>
+    <t>RRID:SAMN19776457</t>
+  </si>
+  <si>
     <t>HPAP-027</t>
   </si>
   <si>
+    <t>RRID:SAMN19776458</t>
+  </si>
+  <si>
     <t>HPAP-028</t>
   </si>
   <si>
+    <t>RRID:SAMN19776459</t>
+  </si>
+  <si>
     <t>4yo</t>
   </si>
   <si>
@@ -321,87 +434,141 @@
     <t>HPAP-029</t>
   </si>
   <si>
+    <t>RRID:SAMN19776460</t>
+  </si>
+  <si>
     <t>23yo</t>
   </si>
   <si>
     <t>HPAP-030</t>
   </si>
   <si>
+    <t>RRID:SAMN19776461</t>
+  </si>
+  <si>
     <t>HPAP-031</t>
   </si>
   <si>
+    <t>RRID:SAMN19776462</t>
+  </si>
+  <si>
     <t>T1DM (18 yrs duration)</t>
   </si>
   <si>
     <t>HPAP-032</t>
   </si>
   <si>
+    <t>RRID:SAMN19776463</t>
+  </si>
+  <si>
     <t>10yo</t>
   </si>
   <si>
     <t>HPAP-033</t>
   </si>
   <si>
+    <t>RRID:SAMN19776464</t>
+  </si>
+  <si>
     <t>6yo</t>
   </si>
   <si>
     <t>HPAP-034</t>
   </si>
   <si>
+    <t>RRID:SAMN19776465</t>
+  </si>
+  <si>
     <t>HPAP-035</t>
   </si>
   <si>
+    <t>RRID:SAMN19776466</t>
+  </si>
+  <si>
     <t>35yo</t>
   </si>
   <si>
     <t>HPAP-036</t>
   </si>
   <si>
+    <t>RRID:SAMN19776467</t>
+  </si>
+  <si>
     <t>HPAP-037</t>
   </si>
   <si>
+    <t>RRID:SAMN19776468</t>
+  </si>
+  <si>
     <t>HPAP-038</t>
   </si>
   <si>
+    <t>RRID:SAMN19776469</t>
+  </si>
+  <si>
     <t>HPAP-039</t>
   </si>
   <si>
+    <t>RRID:SAMN19776470</t>
+  </si>
+  <si>
     <t>5yo</t>
   </si>
   <si>
     <t>HPAP-040</t>
   </si>
   <si>
+    <t>RRID:SAMN19776471</t>
+  </si>
+  <si>
     <t>HPAP-041</t>
   </si>
   <si>
+    <t>RRID:SAMN19776472</t>
+  </si>
+  <si>
     <t>T1DM (12 yrs duration)</t>
   </si>
   <si>
     <t>HPAP-042</t>
   </si>
   <si>
+    <t>RRID:SAMN19776473</t>
+  </si>
+  <si>
     <t>13mo</t>
   </si>
   <si>
     <t>HPAP-043</t>
   </si>
   <si>
+    <t>RRID:SAMN19776474</t>
+  </si>
+  <si>
     <t>15yo</t>
   </si>
   <si>
     <t>HPAP-044</t>
   </si>
   <si>
+    <t>RRID:SAMN19776475</t>
+  </si>
+  <si>
     <t>HPAP-045</t>
   </si>
   <si>
+    <t>RRID:SAMN19776476</t>
+  </si>
+  <si>
     <t>27yo</t>
   </si>
   <si>
     <t>HPAP-046</t>
   </si>
   <si>
+    <t>RRID:SAMN19776477</t>
+  </si>
+  <si>
     <t>19yo</t>
   </si>
   <si>
@@ -411,27 +578,42 @@
     <t>HPAP-047</t>
   </si>
   <si>
+    <t>RRID:SAMN19776478</t>
+  </si>
+  <si>
     <t>8yo</t>
   </si>
   <si>
     <t>HPAP-048</t>
   </si>
   <si>
+    <t>RRID:SAMN19776479</t>
+  </si>
+  <si>
     <t>T1DM (6 yrs duration)</t>
   </si>
   <si>
     <t>HPAP-049</t>
   </si>
   <si>
+    <t>RRID:SAMN19776480</t>
+  </si>
+  <si>
     <t>HPAP-050</t>
   </si>
   <si>
+    <t>RRID:SAMN19776481</t>
+  </si>
+  <si>
     <t>21yo</t>
   </si>
   <si>
     <t>HPAP-051</t>
   </si>
   <si>
+    <t>RRID:SAMN18741940</t>
+  </si>
+  <si>
     <t>T2DM (6 yrs duration)</t>
   </si>
   <si>
@@ -441,30 +623,48 @@
     <t>HPAP-052</t>
   </si>
   <si>
+    <t>RRID:SAMN19776482</t>
+  </si>
+  <si>
     <t>HPAP-053</t>
   </si>
   <si>
+    <t>RRID:SAMN19776483</t>
+  </si>
+  <si>
     <t>58yo</t>
   </si>
   <si>
     <t>HPAP-054</t>
   </si>
   <si>
+    <t>RRID:SAMN19776484</t>
+  </si>
+  <si>
     <t>40yo</t>
   </si>
   <si>
     <t>HPAP-055</t>
   </si>
   <si>
+    <t>RRID:SAMN19776485</t>
+  </si>
+  <si>
     <t>HPAP-056</t>
   </si>
   <si>
+    <t>RRID:SAMN19842585</t>
+  </si>
+  <si>
     <t>33yo</t>
   </si>
   <si>
     <t>HPAP-057</t>
   </si>
   <si>
+    <t>RRID:SAMN19842586</t>
+  </si>
+  <si>
     <t>50yo</t>
   </si>
   <si>
@@ -474,6 +674,9 @@
     <t>HPAP-058</t>
   </si>
   <si>
+    <t>RRID:SAMN19842587</t>
+  </si>
+  <si>
     <t>34yo</t>
   </si>
   <si>
@@ -483,12 +686,21 @@
     <t>HPAP-059</t>
   </si>
   <si>
+    <t>RRID:SAMN19842588</t>
+  </si>
+  <si>
     <t>HPAP-060</t>
   </si>
   <si>
+    <t>RRID:SAMN19842589</t>
+  </si>
+  <si>
     <t>HPAP-061</t>
   </si>
   <si>
+    <t>RRID:SAMN19842590</t>
+  </si>
+  <si>
     <t>59yo</t>
   </si>
   <si>
@@ -498,6 +710,9 @@
     <t>HPAP-062</t>
   </si>
   <si>
+    <t>RRID:SAMN19842591</t>
+  </si>
+  <si>
     <t>56yo</t>
   </si>
   <si>
@@ -507,6 +722,9 @@
     <t>HPAP-063</t>
   </si>
   <si>
+    <t>RRID:SAMN19842592</t>
+  </si>
+  <si>
     <t>45yo</t>
   </si>
   <si>
@@ -516,12 +734,18 @@
     <t>HPAP-064</t>
   </si>
   <si>
+    <t>RRID:SAMN19842593</t>
+  </si>
+  <si>
     <t>T1DM</t>
   </si>
   <si>
     <t>HPAP-065</t>
   </si>
   <si>
+    <t>RRID:SAMN19842594</t>
+  </si>
+  <si>
     <t>54yo</t>
   </si>
   <si>
@@ -531,12 +755,21 @@
     <t>HPAP-066</t>
   </si>
   <si>
+    <t>RRID:SAMN19842595</t>
+  </si>
+  <si>
     <t>HPAP-067</t>
   </si>
   <si>
+    <t>RRID:SAMN19842596</t>
+  </si>
+  <si>
     <t>HPAP-068</t>
   </si>
   <si>
+    <t>RRID:SAMN19842597</t>
+  </si>
+  <si>
     <t>20yo</t>
   </si>
   <si>
@@ -549,28 +782,43 @@
     <t>HPAP-069</t>
   </si>
   <si>
+    <t>RRID:SAMN19842598</t>
+  </si>
+  <si>
     <t>HPAP-070</t>
   </si>
   <si>
+    <t>RRID:SAMN19842599</t>
+  </si>
+  <si>
     <t>55yo</t>
   </si>
   <si>
+    <t>T2DM (15 yrs)</t>
+  </si>
+  <si>
     <t>limited data</t>
   </si>
   <si>
     <t>HPAP-071</t>
   </si>
   <si>
+    <t>RRID:SAMN19842600</t>
+  </si>
+  <si>
     <t>12yo</t>
   </si>
   <si>
+    <t>T1DM (3 yrs)</t>
+  </si>
+  <si>
     <t>limited dtata</t>
   </si>
   <si>
     <t>HPAP-072</t>
   </si>
   <si>
-    <t>Hispanic</t>
+    <t>RRID:SAMN19842601</t>
   </si>
   <si>
     <t>No HX DIAB, GAD+</t>
@@ -579,33 +827,60 @@
     <t>HPAP-073</t>
   </si>
   <si>
+    <t>RRID:SAMN19842602</t>
+  </si>
+  <si>
+    <t>T1DM (8 yr duration)</t>
+  </si>
+  <si>
     <t>HPAP-074</t>
   </si>
   <si>
+    <t>RRID:SAMN19842603</t>
+  </si>
+  <si>
     <t>No Hx DIAB</t>
   </si>
   <si>
     <t>HPAP-075</t>
   </si>
   <si>
+    <t>RRID:SAMN19842604</t>
+  </si>
+  <si>
     <t>HPAP-076</t>
   </si>
   <si>
+    <t>RRID:SAMN19842605</t>
+  </si>
+  <si>
     <t>T2DM (2 yrs duration)</t>
   </si>
   <si>
     <t>HPAP-077</t>
   </si>
   <si>
+    <t>RRID:SAMN19842606</t>
+  </si>
+  <si>
     <t>HPAP-078</t>
   </si>
   <si>
+    <t>RRID:SAMN19842607</t>
+  </si>
+  <si>
     <t>14 mo</t>
   </si>
   <si>
+    <t>DKA (pending aab) T1DM?</t>
+  </si>
+  <si>
     <t>HPAP-079</t>
   </si>
   <si>
+    <t>RRID:SAMN19842608</t>
+  </si>
+  <si>
     <t>52yo</t>
   </si>
   <si>
@@ -615,558 +890,321 @@
     <t>HPAP-080</t>
   </si>
   <si>
+    <t>RRID:SAMN19842609</t>
+  </si>
+  <si>
     <t>HPAP-081</t>
   </si>
   <si>
+    <t>RRID:SAMN19842610</t>
+  </si>
+  <si>
+    <t>T2DM (&gt;10 yr duration)</t>
+  </si>
+  <si>
     <t>HPAP-082</t>
   </si>
   <si>
+    <t>RRID:SAMN19842611</t>
+  </si>
+  <si>
+    <t>25yo</t>
+  </si>
+  <si>
+    <t>UC4-DK112217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sort due to insufficient islets </t>
+  </si>
+  <si>
     <t>HPAP-083</t>
   </si>
   <si>
+    <t>RRID:SAMN19842612</t>
+  </si>
+  <si>
+    <t>T2DM (2 yr duration)</t>
+  </si>
+  <si>
     <t>HPAP-084</t>
   </si>
   <si>
+    <t>RRID:SAMN19842613</t>
+  </si>
+  <si>
+    <t>T1DM (recent onset)</t>
+  </si>
+  <si>
     <t>HPAP-085</t>
   </si>
   <si>
+    <t>RRID:SAMN19842614</t>
+  </si>
+  <si>
+    <t>48yo</t>
+  </si>
+  <si>
+    <t>T2DM (5-6 yr duration)</t>
+  </si>
+  <si>
     <t>HPAP-086</t>
   </si>
   <si>
+    <t>RRID:SAMN19842615</t>
+  </si>
+  <si>
+    <t>T2DM (5 years)</t>
+  </si>
+  <si>
     <t>HPAP-087</t>
   </si>
   <si>
+    <t>RRID:SAMN19842616</t>
+  </si>
+  <si>
+    <t>T1DM (6-10 years)</t>
+  </si>
+  <si>
+    <t>no sort due to insuffecient islets</t>
+  </si>
+  <si>
     <t>HPAP-088</t>
   </si>
   <si>
+    <t>RRID:SAMN19842617</t>
+  </si>
+  <si>
+    <t>37yo</t>
+  </si>
+  <si>
     <t>HPAP-089</t>
   </si>
   <si>
+    <t>RRID:SAMN19842618</t>
+  </si>
+  <si>
     <t>HPAP-090</t>
   </si>
   <si>
+    <t>RRID:SAMN19842619</t>
+  </si>
+  <si>
+    <t>T2DM (4 yr duration)</t>
+  </si>
+  <si>
     <t>HPAP-091</t>
   </si>
   <si>
+    <t>RRID:SAMN19842620</t>
+  </si>
+  <si>
     <t>HPAP-092</t>
   </si>
   <si>
+    <t>RRID:SAMN19842621</t>
+  </si>
+  <si>
     <t>HPAP-093</t>
   </si>
   <si>
-    <t>25yo</t>
-  </si>
-  <si>
-    <t>Caucasian</t>
-  </si>
-  <si>
-    <t>Hispanic (MX)</t>
-  </si>
-  <si>
-    <t>African american/Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no sort due to insufficient islets </t>
-  </si>
-  <si>
-    <t>UC4-DK112217</t>
-  </si>
-  <si>
-    <t>UPenn</t>
-  </si>
-  <si>
-    <t>48yo</t>
-  </si>
-  <si>
-    <t>T2DM (2 yr duration)</t>
-  </si>
-  <si>
-    <t>T1DM (recent onset)</t>
-  </si>
-  <si>
-    <t>T2DM (5-6 yr duration)</t>
-  </si>
-  <si>
-    <t>T1DM (8 yr duration)</t>
-  </si>
-  <si>
-    <t>T2DM (5 years)</t>
-  </si>
-  <si>
-    <t>T1DM (6-10 years)</t>
-  </si>
-  <si>
-    <t>no sort due to insuffecient islets</t>
-  </si>
-  <si>
-    <t>37yo</t>
-  </si>
-  <si>
-    <t>T2DM (4 yr duration)</t>
-  </si>
-  <si>
-    <t>T1DM (3 yrs)</t>
-  </si>
-  <si>
-    <t>DKA (pending aab) T1DM?</t>
-  </si>
-  <si>
-    <t>T2DM (15 yrs)</t>
-  </si>
-  <si>
-    <t>T2DM (&gt;10 yr duration)</t>
+    <t>RRID:SAMN19842622</t>
   </si>
   <si>
     <t>HPAP-094</t>
   </si>
   <si>
+    <t>RRID:SAMN22562805</t>
+  </si>
+  <si>
+    <t>38yo</t>
+  </si>
+  <si>
+    <t>T1DM or MODY (20 yrs, undetermined)</t>
+  </si>
+  <si>
     <t>HPAP-095</t>
   </si>
   <si>
-    <t>T1DM or MODY (20 yrs, undetermined)</t>
-  </si>
-  <si>
-    <t>38yo</t>
-  </si>
-  <si>
-    <t>RRID#</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842600</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842602</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842603</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842604</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842605</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842606</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842607</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842608</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842609</t>
-  </si>
-  <si>
-    <t>RRID:SAMN18741978</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19763626</t>
-  </si>
-  <si>
-    <t>RRID:SAMN18741941</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776437</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776438</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776439</t>
-  </si>
-  <si>
-    <t>RRID:SAMN18741979</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776440</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776441</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776442</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776443</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776444</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776445</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776446</t>
-  </si>
-  <si>
-    <t>RRID:SAMN18741942</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776447</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776448</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776449</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776450</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776451</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776452</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776453</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776454</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776455</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776456</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776457</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776458</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776459</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776460</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776461</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776462</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776463</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776464</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776465</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776466</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776467</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776468</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776469</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776470</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776471</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776472</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776473</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776474</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776475</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776476</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776477</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776478</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776479</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776480</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776481</t>
-  </si>
-  <si>
-    <t>RRID:SAMN18741940</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776482</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776483</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776484</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19776485</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842585</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842586</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842587</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842588</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842589</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842590</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842591</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842592</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842593</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842594</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842595</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842596</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842597</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842598</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842599</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842601</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842610</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842611</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842612</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842613</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842614</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842615</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842616</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842617</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842618</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842619</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842620</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842621</t>
-  </si>
-  <si>
-    <t>RRID:SAMN19842622</t>
+    <t>RRID:SAMN22562806</t>
   </si>
   <si>
     <t>HPAP-096</t>
   </si>
   <si>
+    <t>RRID:SAMN22562807</t>
+  </si>
+  <si>
+    <t>T2DM (1 year)</t>
+  </si>
+  <si>
     <t>HPAP-097</t>
   </si>
   <si>
+    <t>RRID:SAMN22562808</t>
+  </si>
+  <si>
     <t>HPAP-098</t>
   </si>
   <si>
+    <t>RRID:SAMN22562809</t>
+  </si>
+  <si>
     <t>HPAP-099</t>
   </si>
   <si>
-    <t>T2DM (1 year)</t>
+    <t>RRID:SAMN22562810</t>
   </si>
   <si>
     <t>HPAP-100</t>
   </si>
   <si>
+    <t>RRID:SAMN22562811</t>
+  </si>
+  <si>
+    <t>41yo</t>
+  </si>
+  <si>
+    <t>T2DM (7-8 years)</t>
+  </si>
+  <si>
     <t>HPAP-101</t>
   </si>
   <si>
+    <t>RRID:SAMN22562812</t>
+  </si>
+  <si>
     <t>HPAP-102</t>
   </si>
   <si>
-    <t>41yo</t>
-  </si>
-  <si>
-    <t>T2DM (7-8 years)</t>
+    <t>RRID:SAMN22562813</t>
   </si>
   <si>
     <t>T1DM (6 years)</t>
   </si>
   <si>
+    <t>NOT SORTED DUE TO INSUFFICIENT ISLETS</t>
+  </si>
+  <si>
     <t>HPAP-103</t>
   </si>
   <si>
+    <t>RRID:SAMN22562814</t>
+  </si>
+  <si>
+    <t>49yo</t>
+  </si>
+  <si>
     <t>HPAP-104</t>
   </si>
   <si>
+    <t>RRID:SAMN22562815</t>
+  </si>
+  <si>
     <t>HPAP-105</t>
   </si>
   <si>
+    <t>RRID:SAMN25600001</t>
+  </si>
+  <si>
+    <t>51yo</t>
+  </si>
+  <si>
     <t>HPAP-106</t>
   </si>
   <si>
+    <t>RRID:SAMN25600002</t>
+  </si>
+  <si>
+    <t>T2DM (3 years)</t>
+  </si>
+  <si>
     <t>HPAP-107</t>
   </si>
   <si>
-    <t>RRID:SAMN22562805</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562806</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562807</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562808</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562809</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562810</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562811</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562812</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562813</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562814</t>
-  </si>
-  <si>
-    <t>RRID:SAMN22562815</t>
-  </si>
-  <si>
-    <t>49yo</t>
-  </si>
-  <si>
-    <t>51yo</t>
-  </si>
-  <si>
-    <t>T2DM (3 years)</t>
+    <t>RRID:SAMN25600003</t>
   </si>
   <si>
     <t>HPAP-108</t>
   </si>
   <si>
+    <t>RRID:SAMN25600004</t>
+  </si>
+  <si>
     <t>HPAP-109</t>
   </si>
   <si>
+    <t>RRID:SAMN25600005</t>
+  </si>
+  <si>
+    <t>T2DM (&lt;5yrs)</t>
+  </si>
+  <si>
     <t>HPAP-110</t>
   </si>
   <si>
+    <t>RRID:SAMN26024925</t>
+  </si>
+  <si>
     <t>HPAP-111</t>
   </si>
   <si>
-    <t>RRID:SAMN25600001</t>
-  </si>
-  <si>
-    <t>RRID:SAMN25600002</t>
-  </si>
-  <si>
-    <t>RRID:SAMN25600003</t>
-  </si>
-  <si>
-    <t>RRID:SAMN25600004</t>
-  </si>
-  <si>
-    <t>RRID:SAMN25600005</t>
-  </si>
-  <si>
-    <t>RRID:SAMN26024925</t>
-  </si>
-  <si>
     <t>RRID:SAMN26024926</t>
   </si>
   <si>
+    <t>63yo</t>
+  </si>
+  <si>
     <t>HPAP-113</t>
   </si>
   <si>
+    <t>RRID:SAMN28088751</t>
+  </si>
+  <si>
+    <t>9yo</t>
+  </si>
+  <si>
+    <t>T1DM (recent DKA)</t>
+  </si>
+  <si>
     <t>HPAP-114</t>
   </si>
   <si>
-    <t>T2DM (&lt;5yrs)</t>
-  </si>
-  <si>
-    <t>63yo</t>
-  </si>
-  <si>
-    <t>T1DM (recent DKA)</t>
-  </si>
-  <si>
-    <t>9yo</t>
-  </si>
-  <si>
-    <t>NOT SORTED DUE TO INSUFFICIENT ISLETS</t>
+    <t>RRID:SAMN28088752</t>
   </si>
   <si>
     <t>HPAP-116</t>
   </si>
   <si>
+    <t>RRID:SAMN28088753</t>
+  </si>
+  <si>
+    <t>No HX Diabetes</t>
+  </si>
+  <si>
     <t>HPAP-117</t>
   </si>
   <si>
+    <t>RRID:SAMN28088754</t>
+  </si>
+  <si>
+    <t>64yo</t>
+  </si>
+  <si>
     <t>HPAP-118</t>
   </si>
   <si>
+    <t>RRID:SAMN28088755</t>
+  </si>
+  <si>
+    <t>Penn</t>
+  </si>
+  <si>
     <t>HPAP-119</t>
   </si>
   <si>
+    <t>pending</t>
+  </si>
+  <si>
     <t>HPAP-120</t>
   </si>
   <si>
@@ -1176,31 +1214,166 @@
     <t>HPAP-122</t>
   </si>
   <si>
-    <t>RRID:SAMN28088751</t>
-  </si>
-  <si>
-    <t>RRID:SAMN28088752</t>
-  </si>
-  <si>
-    <t>RRID:SAMN28088753</t>
-  </si>
-  <si>
-    <t>RRID:SAMN28088754</t>
-  </si>
-  <si>
-    <t>RRID:SAMN28088755</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>64yo</t>
-  </si>
-  <si>
-    <t>No HX Diabetes</t>
-  </si>
-  <si>
-    <t>Penn</t>
+    <t>HPAP-123</t>
+  </si>
+  <si>
+    <t>HPAP-124</t>
+  </si>
+  <si>
+    <t>HPAP-125</t>
+  </si>
+  <si>
+    <t>HPAP-126</t>
+  </si>
+  <si>
+    <t>HPAP-127</t>
+  </si>
+  <si>
+    <t>HPAP-128</t>
+  </si>
+  <si>
+    <t>HPAP-129</t>
+  </si>
+  <si>
+    <t>HPAP-130</t>
+  </si>
+  <si>
+    <t>HPAP-131</t>
+  </si>
+  <si>
+    <t>HPAP-132</t>
+  </si>
+  <si>
+    <t>HPAP-133</t>
+  </si>
+  <si>
+    <t>HPAP-134</t>
+  </si>
+  <si>
+    <t>HPAP-135</t>
+  </si>
+  <si>
+    <t>HPAP-136</t>
+  </si>
+  <si>
+    <t>HPAP-137</t>
+  </si>
+  <si>
+    <t>HPAP-138</t>
+  </si>
+  <si>
+    <t>HPAP-139</t>
+  </si>
+  <si>
+    <t>HPAP-140</t>
+  </si>
+  <si>
+    <t>HPAP-141</t>
+  </si>
+  <si>
+    <t>HPAP-142</t>
+  </si>
+  <si>
+    <t>HPAP-143</t>
+  </si>
+  <si>
+    <t>HPAP-144</t>
+  </si>
+  <si>
+    <t>HPAP-145</t>
+  </si>
+  <si>
+    <t>RRID:SAMN29419885</t>
+  </si>
+  <si>
+    <t>RRID:SAMN29419886</t>
+  </si>
+  <si>
+    <t>RRID:SAMN29419887</t>
+  </si>
+  <si>
+    <t>RRID:SAMN29419888</t>
+  </si>
+  <si>
+    <t>RRID:SAMN30486793</t>
+  </si>
+  <si>
+    <t>RRID:SAMN30486794</t>
+  </si>
+  <si>
+    <t>RRID:SAMN30486795</t>
+  </si>
+  <si>
+    <t>RRID:SAMN30486796</t>
+  </si>
+  <si>
+    <t>RRID:SAMN30486797</t>
+  </si>
+  <si>
+    <t>RRID:SAMN31257357</t>
+  </si>
+  <si>
+    <t>RRID:SAMN31257358</t>
+  </si>
+  <si>
+    <t>RRID:SAMN31536831</t>
+  </si>
+  <si>
+    <t>RRID:SAMN31536832</t>
+  </si>
+  <si>
+    <t>RRID:SAMN32543540</t>
+  </si>
+  <si>
+    <t>RRID:SAMN32543541</t>
+  </si>
+  <si>
+    <t>RRID:SAMN32643782</t>
+  </si>
+  <si>
+    <t>RRID:SAMN32643783</t>
+  </si>
+  <si>
+    <t>RRID:SAMN32643784</t>
+  </si>
+  <si>
+    <t>RRID:SAMN32643785</t>
+  </si>
+  <si>
+    <t>RRID:SAMN34280071</t>
+  </si>
+  <si>
+    <t>RRID:SAMN33611450</t>
+  </si>
+  <si>
+    <t>RRID:SAMN34280697</t>
+  </si>
+  <si>
+    <t>RRID:SAMN33611451</t>
+  </si>
+  <si>
+    <t>RRID:SAMN33611452</t>
+  </si>
+  <si>
+    <t>RRID:SAMN34280072</t>
+  </si>
+  <si>
+    <t>53yo</t>
+  </si>
+  <si>
+    <t>32yo</t>
+  </si>
+  <si>
+    <t>36yo</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>61yo</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native</t>
   </si>
 </sst>
 </file>
@@ -1447,9 +1620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,6 +1741,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,13 +2060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZK138"/>
+  <dimension ref="A1:AZK144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G121" sqref="G121"/>
+      <selection pane="bottomRight" activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
@@ -1901,813 +2074,813 @@
     <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.6328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.54296875" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>233</v>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="43" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="36">
+        <v>17</v>
+      </c>
+      <c r="I2" s="35">
         <v>42672</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>14</v>
+      <c r="J2" s="35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="36">
+        <v>24</v>
+      </c>
+      <c r="I3" s="35">
         <v>42747</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>19</v>
+      <c r="J3" s="35" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="36">
+        <v>24</v>
+      </c>
+      <c r="I4" s="35">
         <v>42753</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>23</v>
+      <c r="J4" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="36">
+        <v>17</v>
+      </c>
+      <c r="I5" s="35">
         <v>42761</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>28</v>
+      <c r="J5" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" s="36">
+        <v>17</v>
+      </c>
+      <c r="I6" s="35">
         <v>42762</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>31</v>
+      <c r="J6" s="35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" s="36">
+        <v>17</v>
+      </c>
+      <c r="I7" s="35">
         <v>42797</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>34</v>
+      <c r="J7" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="36">
+        <v>17</v>
+      </c>
+      <c r="I8" s="35">
         <v>42823</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>38</v>
+      <c r="J8" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="36">
+        <v>24</v>
+      </c>
+      <c r="I9" s="35">
         <v>42841</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>40</v>
+      <c r="J9" s="35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>211</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="36">
+        <v>24</v>
+      </c>
+      <c r="I10" s="35">
         <v>42866</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>43</v>
+      <c r="J10" s="35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="36">
+        <v>24</v>
+      </c>
+      <c r="I11" s="35">
         <v>42882</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>47</v>
+      <c r="J11" s="35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="36">
+        <v>17</v>
+      </c>
+      <c r="I12" s="35">
         <v>42911</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>49</v>
+      <c r="J12" s="35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>254</v>
+        <v>68</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="36">
+        <v>24</v>
+      </c>
+      <c r="I13" s="35">
         <v>42923</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>52</v>
+      <c r="J13" s="35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="36">
+        <v>17</v>
+      </c>
+      <c r="I14" s="35">
         <v>42936</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>56</v>
+      <c r="J14" s="35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I15" s="36">
+        <v>17</v>
+      </c>
+      <c r="I15" s="35">
         <v>42972</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>59</v>
+      <c r="J15" s="35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="36">
+        <v>24</v>
+      </c>
+      <c r="I16" s="35">
         <v>42989</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>62</v>
+      <c r="J16" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:83">
       <c r="A17" s="6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="36">
+        <v>24</v>
+      </c>
+      <c r="I17" s="35">
         <v>42961</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>65</v>
+      <c r="J17" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:83">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="36">
+        <v>24</v>
+      </c>
+      <c r="I18" s="35">
         <v>42995</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>67</v>
+      <c r="J18" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:83">
       <c r="A19" s="6" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" s="36">
+        <v>17</v>
+      </c>
+      <c r="I19" s="35">
         <v>43055</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>70</v>
+      <c r="J19" s="35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:83">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="36">
+        <v>24</v>
+      </c>
+      <c r="I20" s="35">
         <v>43073</v>
       </c>
-      <c r="J20" s="36" t="s">
-        <v>73</v>
+      <c r="J20" s="35" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:83">
       <c r="A21" s="6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="36">
+        <v>24</v>
+      </c>
+      <c r="I21" s="35">
         <v>43103</v>
       </c>
-      <c r="J21" s="36" t="s">
-        <v>76</v>
+      <c r="J21" s="35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:83">
       <c r="A22" s="6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="36">
+        <v>24</v>
+      </c>
+      <c r="I22" s="35">
         <v>43171</v>
       </c>
-      <c r="J22" s="36" t="s">
-        <v>79</v>
+      <c r="J22" s="35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:83">
       <c r="A23" s="6" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I23" s="36">
+        <v>17</v>
+      </c>
+      <c r="I23" s="35">
         <v>43183</v>
       </c>
-      <c r="J23" s="36" t="s">
-        <v>82</v>
+      <c r="J23" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:83">
       <c r="A24" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="36">
+        <v>24</v>
+      </c>
+      <c r="I24" s="35">
         <v>43194</v>
       </c>
-      <c r="J24" s="36" t="s">
-        <v>85</v>
+      <c r="J24" s="35" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:83">
       <c r="A25" s="6" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="36">
+        <v>24</v>
+      </c>
+      <c r="I25" s="35">
         <v>43199</v>
       </c>
-      <c r="J25" s="36" t="s">
-        <v>87</v>
+      <c r="J25" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -2785,33 +2958,33 @@
     </row>
     <row r="26" spans="1:83" s="3" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="52"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2888,33 +3061,33 @@
     </row>
     <row r="27" spans="1:83">
       <c r="A27" s="6" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="36">
+        <v>24</v>
+      </c>
+      <c r="I27" s="35">
         <v>43235</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <v>43237</v>
       </c>
       <c r="K27" s="5"/>
@@ -2993,33 +3166,33 @@
     </row>
     <row r="28" spans="1:83">
       <c r="A28" s="6" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>269</v>
+        <v>125</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I28" s="36">
+        <v>17</v>
+      </c>
+      <c r="I28" s="35">
         <v>43266</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <v>43276</v>
       </c>
       <c r="K28" s="5"/>
@@ -3098,33 +3271,33 @@
     </row>
     <row r="29" spans="1:83">
       <c r="A29" s="6" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="36">
+        <v>24</v>
+      </c>
+      <c r="I29" s="35">
         <v>43279</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="35">
         <v>43280</v>
       </c>
       <c r="K29" s="5"/>
@@ -3203,33 +3376,33 @@
     </row>
     <row r="30" spans="1:83">
       <c r="A30" s="6" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="36">
+        <v>24</v>
+      </c>
+      <c r="I30" s="35">
         <v>43280</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="35">
         <v>43286</v>
       </c>
       <c r="K30" s="5"/>
@@ -3308,33 +3481,33 @@
     </row>
     <row r="31" spans="1:83" s="3" customFormat="1">
       <c r="A31" s="15" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J31" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="52"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -3411,33 +3584,33 @@
     </row>
     <row r="32" spans="1:83" s="3" customFormat="1">
       <c r="A32" s="15" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="52"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3514,33 +3687,33 @@
     </row>
     <row r="33" spans="1:83">
       <c r="A33" s="6" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="36">
+        <v>24</v>
+      </c>
+      <c r="I33" s="35">
         <v>43364</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="35">
         <v>43369</v>
       </c>
       <c r="K33" s="5"/>
@@ -3619,33 +3792,33 @@
     </row>
     <row r="34" spans="1:83">
       <c r="A34" s="6" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" s="36">
+        <v>17</v>
+      </c>
+      <c r="I34" s="35">
         <v>43377</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="35">
         <v>43382</v>
       </c>
       <c r="K34" s="5"/>
@@ -3724,33 +3897,33 @@
     </row>
     <row r="35" spans="1:83">
       <c r="A35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>209</v>
+      <c r="E35" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="36">
+        <v>17</v>
+      </c>
+      <c r="I35" s="35">
         <v>43443</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="35">
         <v>43446</v>
       </c>
       <c r="K35" s="5"/>
@@ -3829,33 +4002,33 @@
     </row>
     <row r="36" spans="1:83">
       <c r="A36" s="6" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I36" s="36">
+        <v>17</v>
+      </c>
+      <c r="I36" s="35">
         <v>43479</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="35">
         <v>43482</v>
       </c>
       <c r="K36" s="5"/>
@@ -3934,33 +4107,33 @@
     </row>
     <row r="37" spans="1:83">
       <c r="A37" s="6" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="36">
+        <v>24</v>
+      </c>
+      <c r="I37" s="35">
         <v>43487</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <v>43489</v>
       </c>
       <c r="K37" s="5"/>
@@ -4039,33 +4212,33 @@
     </row>
     <row r="38" spans="1:83">
       <c r="A38" s="6" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I38" s="36">
+        <v>17</v>
+      </c>
+      <c r="I38" s="35">
         <v>43507</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <v>43511</v>
       </c>
       <c r="K38" s="5"/>
@@ -4144,33 +4317,33 @@
     </row>
     <row r="39" spans="1:83">
       <c r="A39" s="6" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="36">
+        <v>24</v>
+      </c>
+      <c r="I39" s="35">
         <v>43559</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="35">
         <v>43564</v>
       </c>
       <c r="K39" s="5"/>
@@ -4249,33 +4422,33 @@
     </row>
     <row r="40" spans="1:83">
       <c r="A40" s="6" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="36">
+        <v>24</v>
+      </c>
+      <c r="I40" s="35">
         <v>43597</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="35">
         <v>43601</v>
       </c>
       <c r="K40" s="5"/>
@@ -4354,33 +4527,33 @@
     </row>
     <row r="41" spans="1:83">
       <c r="A41" s="6" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="36">
+        <v>17</v>
+      </c>
+      <c r="I41" s="35">
         <v>43619</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="35">
         <v>43623</v>
       </c>
       <c r="K41" s="5"/>
@@ -4459,33 +4632,33 @@
     </row>
     <row r="42" spans="1:83" s="3" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J42" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="52"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -4562,33 +4735,33 @@
     </row>
     <row r="43" spans="1:83">
       <c r="A43" s="6" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="36">
+        <v>24</v>
+      </c>
+      <c r="I43" s="35">
         <v>43630</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="35">
         <v>43635</v>
       </c>
       <c r="K43" s="5"/>
@@ -4667,33 +4840,33 @@
     </row>
     <row r="44" spans="1:83">
       <c r="A44" s="6" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="36">
+        <v>24</v>
+      </c>
+      <c r="I44" s="35">
         <v>43637</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="35">
         <v>43641</v>
       </c>
       <c r="K44" s="5"/>
@@ -4772,33 +4945,33 @@
     </row>
     <row r="45" spans="1:83">
       <c r="A45" s="6" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="36">
+        <v>24</v>
+      </c>
+      <c r="I45" s="35">
         <v>43677</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <v>43682</v>
       </c>
       <c r="K45" s="5"/>
@@ -4877,33 +5050,33 @@
     </row>
     <row r="46" spans="1:83">
       <c r="A46" s="6" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="36">
+        <v>24</v>
+      </c>
+      <c r="I46" s="35">
         <v>40392</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="35">
         <v>43684</v>
       </c>
       <c r="K46" s="5"/>
@@ -4982,33 +5155,33 @@
     </row>
     <row r="47" spans="1:83" s="4" customFormat="1">
       <c r="A47" s="16" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="J47" s="54"/>
+        <v>17</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" s="53"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -5064,33 +5237,33 @@
     </row>
     <row r="48" spans="1:83">
       <c r="A48" s="6" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I48" s="36">
+        <v>17</v>
+      </c>
+      <c r="I48" s="35">
         <v>43711</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="35">
         <v>43713</v>
       </c>
       <c r="K48" s="5"/>
@@ -5169,33 +5342,33 @@
     </row>
     <row r="49" spans="1:83" s="3" customFormat="1">
       <c r="A49" s="15" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J49" s="52"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -5272,33 +5445,33 @@
     </row>
     <row r="50" spans="1:83">
       <c r="A50" s="6" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="36">
+        <v>24</v>
+      </c>
+      <c r="I50" s="35">
         <v>43741</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="35">
         <v>43746</v>
       </c>
       <c r="K50" s="5"/>
@@ -5377,33 +5550,33 @@
     </row>
     <row r="51" spans="1:83">
       <c r="A51" s="6" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="36">
+        <v>24</v>
+      </c>
+      <c r="I51" s="35">
         <v>43757</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="35">
         <v>43761</v>
       </c>
       <c r="K51" s="5"/>
@@ -5482,33 +5655,33 @@
     </row>
     <row r="52" spans="1:83">
       <c r="A52" s="6" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" s="36">
+        <v>17</v>
+      </c>
+      <c r="I52" s="35">
         <v>43832</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="35">
         <v>43838</v>
       </c>
       <c r="K52" s="5"/>
@@ -5587,33 +5760,33 @@
     </row>
     <row r="53" spans="1:83">
       <c r="A53" s="6" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I53" s="36">
+        <v>17</v>
+      </c>
+      <c r="I53" s="35">
         <v>43849</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <v>43853</v>
       </c>
       <c r="K53" s="5"/>
@@ -5692,33 +5865,33 @@
     </row>
     <row r="54" spans="1:83">
       <c r="A54" s="6" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I54" s="36">
+        <v>17</v>
+      </c>
+      <c r="I54" s="35">
         <v>43857</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="35">
         <v>43859</v>
       </c>
       <c r="K54" s="5"/>
@@ -5797,33 +5970,33 @@
     </row>
     <row r="55" spans="1:83">
       <c r="A55" s="6" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I55" s="36">
+        <v>17</v>
+      </c>
+      <c r="I55" s="35">
         <v>43858</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="35">
         <v>43864</v>
       </c>
       <c r="K55" s="5"/>
@@ -5902,33 +6075,33 @@
     </row>
     <row r="56" spans="1:83">
       <c r="A56" s="6" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="48" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I56" s="36">
+        <v>17</v>
+      </c>
+      <c r="I56" s="35">
         <v>43860</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="35">
         <v>43864</v>
       </c>
       <c r="K56" s="5"/>
@@ -6007,33 +6180,33 @@
     </row>
     <row r="57" spans="1:83">
       <c r="A57" s="6" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I57" s="36">
+        <v>17</v>
+      </c>
+      <c r="I57" s="35">
         <v>43864</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="35">
         <v>43866</v>
       </c>
       <c r="K57" s="5"/>
@@ -6112,33 +6285,33 @@
     </row>
     <row r="58" spans="1:83">
       <c r="A58" s="6" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="G58" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I58" s="36">
+        <v>17</v>
+      </c>
+      <c r="I58" s="35">
         <v>43866</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="35">
         <v>43875</v>
       </c>
       <c r="K58" s="5"/>
@@ -6217,33 +6390,33 @@
     </row>
     <row r="59" spans="1:83">
       <c r="A59" s="6" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="36">
+        <v>24</v>
+      </c>
+      <c r="I59" s="35">
         <v>43871</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="35">
         <v>43875</v>
       </c>
       <c r="K59" s="5"/>
@@ -6322,33 +6495,33 @@
     </row>
     <row r="60" spans="1:83">
       <c r="A60" s="6" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="36">
+        <v>17</v>
+      </c>
+      <c r="I60" s="35">
         <v>43894</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="35">
         <v>43899</v>
       </c>
       <c r="K60" s="5"/>
@@ -6427,33 +6600,33 @@
     </row>
     <row r="61" spans="1:83" s="4" customFormat="1">
       <c r="A61" s="16" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>41</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="I61" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="J61" s="54"/>
+        <v>17</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" s="53"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -6509,33 +6682,33 @@
     </row>
     <row r="62" spans="1:83">
       <c r="A62" s="6" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I62" s="36">
+        <v>17</v>
+      </c>
+      <c r="I62" s="35">
         <v>44013</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="35">
         <v>44021</v>
       </c>
       <c r="K62" s="5"/>
@@ -6593,33 +6766,33 @@
     </row>
     <row r="63" spans="1:83">
       <c r="A63" s="6" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="36">
+        <v>24</v>
+      </c>
+      <c r="I63" s="35">
         <v>44021</v>
       </c>
-      <c r="J63" s="36">
+      <c r="J63" s="35">
         <v>44027</v>
       </c>
       <c r="K63" s="5"/>
@@ -6677,33 +6850,33 @@
     </row>
     <row r="64" spans="1:83">
       <c r="A64" s="6" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I64" s="36">
+        <v>17</v>
+      </c>
+      <c r="I64" s="35">
         <v>44024</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="35">
         <v>44027</v>
       </c>
       <c r="K64" s="5"/>
@@ -6761,33 +6934,33 @@
     </row>
     <row r="65" spans="1:1363">
       <c r="A65" s="6" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="45" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I65" s="36">
+        <v>17</v>
+      </c>
+      <c r="I65" s="35">
         <v>44027</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="35">
         <v>44034</v>
       </c>
       <c r="K65" s="5"/>
@@ -6845,33 +7018,33 @@
     </row>
     <row r="66" spans="1:1363">
       <c r="A66" s="6" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>14</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="36">
+        <v>24</v>
+      </c>
+      <c r="I66" s="35">
         <v>44032</v>
       </c>
-      <c r="J66" s="36">
+      <c r="J66" s="35">
         <v>44034</v>
       </c>
       <c r="K66" s="5"/>
@@ -6929,33 +7102,33 @@
     </row>
     <row r="67" spans="1:1363">
       <c r="A67" s="6" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="36">
+        <v>24</v>
+      </c>
+      <c r="I67" s="35">
         <v>44043</v>
       </c>
-      <c r="J67" s="36">
+      <c r="J67" s="35">
         <v>44047</v>
       </c>
       <c r="K67" s="5"/>
@@ -7013,33 +7186,33 @@
     </row>
     <row r="68" spans="1:1363">
       <c r="A68" s="6" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H68" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="I68" s="36">
+        <v>192</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="35">
         <v>44055</v>
       </c>
-      <c r="J68" s="36">
+      <c r="J68" s="35">
         <v>44057</v>
       </c>
       <c r="K68" s="5"/>
@@ -7097,33 +7270,33 @@
     </row>
     <row r="69" spans="1:1363" s="3" customFormat="1">
       <c r="A69" s="15" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>170</v>
+        <v>33</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>244</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J69" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="I69" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J69" s="52"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -7179,33 +7352,33 @@
     </row>
     <row r="70" spans="1:1363">
       <c r="A70" s="6" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>170</v>
+        <v>33</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="36">
+        <v>16</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="35">
         <v>44092</v>
       </c>
-      <c r="J70" s="55">
+      <c r="J70" s="54">
         <v>44096</v>
       </c>
       <c r="K70" s="5"/>
@@ -8564,34 +8737,34 @@
     </row>
     <row r="71" spans="1:1363" s="4" customFormat="1">
       <c r="A71" s="16" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>174</v>
+        <v>12</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="54">
+        <v>24</v>
+      </c>
+      <c r="I71" s="53">
         <v>44102</v>
       </c>
-      <c r="J71" s="54" t="s">
-        <v>175</v>
+      <c r="J71" s="53" t="s">
+        <v>252</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -8648,34 +8821,34 @@
     </row>
     <row r="72" spans="1:1363" s="4" customFormat="1">
       <c r="A72" s="16" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="47" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="54">
+        <v>24</v>
+      </c>
+      <c r="I72" s="53">
         <v>44126</v>
       </c>
-      <c r="J72" s="54" t="s">
-        <v>178</v>
+      <c r="J72" s="53" t="s">
+        <v>257</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -8732,33 +8905,33 @@
     </row>
     <row r="73" spans="1:1363">
       <c r="A73" s="6" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="49" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="55">
+        <v>24</v>
+      </c>
+      <c r="I73" s="54">
         <v>44144</v>
       </c>
-      <c r="J73" s="36">
+      <c r="J73" s="35">
         <v>44147</v>
       </c>
       <c r="K73" s="5"/>
@@ -10117,33 +10290,33 @@
     </row>
     <row r="74" spans="1:1363">
       <c r="A74" s="15" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>35</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J74" s="57"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -11500,33 +11673,33 @@
     </row>
     <row r="75" spans="1:1363">
       <c r="A75" s="6" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I75" s="55">
+        <v>17</v>
+      </c>
+      <c r="I75" s="54">
         <v>44148</v>
       </c>
-      <c r="J75" s="55">
+      <c r="J75" s="54">
         <v>44152</v>
       </c>
       <c r="K75" s="5"/>
@@ -12885,33 +13058,33 @@
     </row>
     <row r="76" spans="1:1363">
       <c r="A76" s="6" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" s="55">
+        <v>17</v>
+      </c>
+      <c r="I76" s="54">
         <v>44158</v>
       </c>
-      <c r="J76" s="55">
+      <c r="J76" s="54">
         <v>44160</v>
       </c>
       <c r="K76" s="5"/>
@@ -14270,33 +14443,33 @@
     </row>
     <row r="77" spans="1:1363">
       <c r="A77" s="15" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="51" t="s">
-        <v>211</v>
+      <c r="D77" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="J77" s="56"/>
+        <v>192</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" s="55"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -15653,33 +15826,33 @@
     </row>
     <row r="78" spans="1:1363">
       <c r="A78" s="6" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="49" t="s">
-        <v>209</v>
+        <v>12</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I78" s="55">
+        <v>17</v>
+      </c>
+      <c r="I78" s="54">
         <v>44168</v>
       </c>
-      <c r="J78" s="55">
+      <c r="J78" s="54">
         <v>44173</v>
       </c>
       <c r="K78" s="5"/>
@@ -17038,33 +17211,33 @@
     </row>
     <row r="79" spans="1:1363">
       <c r="A79" s="15" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>209</v>
+        <v>33</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>14</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="56"/>
+        <v>16</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J79" s="55"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -18421,33 +18594,33 @@
     </row>
     <row r="80" spans="1:1363">
       <c r="A80" s="6" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E80" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H80" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="55">
+        <v>24</v>
+      </c>
+      <c r="I80" s="54">
         <v>44208</v>
       </c>
-      <c r="J80" s="55">
+      <c r="J80" s="54">
         <v>44209</v>
       </c>
       <c r="K80" s="5"/>
@@ -19806,33 +19979,33 @@
     </row>
     <row r="81" spans="1:1363">
       <c r="A81" s="6" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="49" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>35</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" s="55">
+        <v>192</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="54">
         <v>44216</v>
       </c>
-      <c r="J81" s="55">
+      <c r="J81" s="54">
         <v>44218</v>
       </c>
       <c r="K81" s="5"/>
@@ -21191,33 +21364,33 @@
     </row>
     <row r="82" spans="1:1363" s="6" customFormat="1">
       <c r="A82" s="6" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>159</v>
+        <v>33</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="36">
+        <v>24</v>
+      </c>
+      <c r="I82" s="35">
         <v>44223</v>
       </c>
-      <c r="J82" s="36">
+      <c r="J82" s="35">
         <v>44230</v>
       </c>
       <c r="K82" s="17"/>
@@ -22576,34 +22749,34 @@
     </row>
     <row r="83" spans="1:1363" s="4" customFormat="1">
       <c r="A83" s="16" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>208</v>
+        <v>12</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>289</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="54">
+        <v>24</v>
+      </c>
+      <c r="I83" s="53">
         <v>44225</v>
       </c>
-      <c r="J83" s="54" t="s">
-        <v>212</v>
+      <c r="J83" s="53" t="s">
+        <v>291</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -22660,33 +22833,33 @@
     </row>
     <row r="84" spans="1:1363">
       <c r="A84" s="6" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>159</v>
+        <v>12</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" s="36">
+        <v>17</v>
+      </c>
+      <c r="I84" s="35">
         <v>44231</v>
       </c>
-      <c r="J84" s="55">
+      <c r="J84" s="54">
         <v>44236</v>
       </c>
       <c r="K84" s="5"/>
@@ -24045,33 +24218,33 @@
     </row>
     <row r="85" spans="1:1363">
       <c r="A85" s="6" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>177</v>
+        <v>33</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>255</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="57">
+        <v>24</v>
+      </c>
+      <c r="I85" s="56">
         <v>44238</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="56">
         <v>44242</v>
       </c>
       <c r="K85" s="5"/>
@@ -25430,33 +25603,33 @@
     </row>
     <row r="86" spans="1:1363">
       <c r="A86" s="6" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>215</v>
+        <v>33</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>300</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I86" s="55">
+        <v>17</v>
+      </c>
+      <c r="I86" s="54">
         <v>44243</v>
       </c>
-      <c r="J86" s="57">
+      <c r="J86" s="56">
         <v>44249</v>
       </c>
       <c r="K86" s="5"/>
@@ -26815,33 +26988,33 @@
     </row>
     <row r="87" spans="1:1363" s="3" customFormat="1">
       <c r="A87" s="15" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H87" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="I87" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J87" s="52"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -26897,34 +27070,34 @@
     </row>
     <row r="88" spans="1:1363" s="4" customFormat="1">
       <c r="A88" s="16" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>119</v>
+        <v>33</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="54">
+        <v>24</v>
+      </c>
+      <c r="I88" s="53">
         <v>44263</v>
       </c>
-      <c r="J88" s="54" t="s">
-        <v>222</v>
+      <c r="J88" s="53" t="s">
+        <v>308</v>
       </c>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
@@ -26981,34 +27154,34 @@
     </row>
     <row r="89" spans="1:1363" s="4" customFormat="1">
       <c r="A89" s="16" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>223</v>
+        <v>12</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>311</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="54">
+        <v>24</v>
+      </c>
+      <c r="I89" s="53">
         <v>44274</v>
       </c>
-      <c r="J89" s="54" t="s">
-        <v>222</v>
+      <c r="J89" s="53" t="s">
+        <v>308</v>
       </c>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -27065,33 +27238,33 @@
     </row>
     <row r="90" spans="1:1363" s="3" customFormat="1">
       <c r="A90" s="15" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>122</v>
+        <v>12</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J90" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="I90" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J90" s="52"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -27147,33 +27320,33 @@
     </row>
     <row r="91" spans="1:1363">
       <c r="A91" s="6" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>153</v>
+        <v>33</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="55">
+        <v>24</v>
+      </c>
+      <c r="I91" s="54">
         <v>44293</v>
       </c>
-      <c r="J91" s="36">
+      <c r="J91" s="35">
         <v>44295</v>
       </c>
       <c r="K91" s="5"/>
@@ -28532,33 +28705,33 @@
     </row>
     <row r="92" spans="1:1363">
       <c r="A92" s="6" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>145</v>
+        <v>33</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="36">
+        <v>24</v>
+      </c>
+      <c r="I92" s="35">
         <v>44300</v>
       </c>
-      <c r="J92" s="36">
+      <c r="J92" s="35">
         <v>44307</v>
       </c>
       <c r="K92" s="5"/>
@@ -29917,33 +30090,33 @@
     </row>
     <row r="93" spans="1:1363">
       <c r="A93" s="6" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>132</v>
+        <v>12</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="36">
+        <v>24</v>
+      </c>
+      <c r="I93" s="35">
         <v>44304</v>
       </c>
-      <c r="J93" s="36">
+      <c r="J93" s="35">
         <v>44306</v>
       </c>
       <c r="K93" s="5"/>
@@ -31302,33 +31475,33 @@
     </row>
     <row r="94" spans="1:1363">
       <c r="A94" s="6" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>145</v>
+        <v>33</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="36">
+        <v>24</v>
+      </c>
+      <c r="I94" s="35">
         <v>44315</v>
       </c>
-      <c r="J94" s="36">
+      <c r="J94" s="35">
         <v>44320</v>
       </c>
       <c r="K94" s="5"/>
@@ -32687,34 +32860,34 @@
     </row>
     <row r="95" spans="1:1363" s="3" customFormat="1">
       <c r="A95" s="15" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>232</v>
+        <v>33</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>325</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H95" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="I95" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J95" s="53" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="I95" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J95" s="52" t="s">
+        <v>121</v>
       </c>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -32771,33 +32944,33 @@
     </row>
     <row r="96" spans="1:1363">
       <c r="A96" s="6" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>97</v>
+        <v>33</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" s="36">
+        <v>17</v>
+      </c>
+      <c r="I96" s="35">
         <v>44350</v>
       </c>
-      <c r="J96" s="36">
+      <c r="J96" s="35">
         <v>44354</v>
       </c>
       <c r="K96" s="5"/>
@@ -34156,33 +34329,33 @@
     </row>
     <row r="97" spans="1:1363">
       <c r="A97" s="17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>156</v>
+        <v>33</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F97" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="31" t="s">
         <v>331</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="36">
+        <v>24</v>
+      </c>
+      <c r="I97" s="35">
         <v>44361</v>
       </c>
-      <c r="J97" s="36">
+      <c r="J97" s="35">
         <v>44364</v>
       </c>
       <c r="K97" s="5"/>
@@ -35541,30 +35714,30 @@
     </row>
     <row r="98" spans="1:1363">
       <c r="A98" s="17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>164</v>
+        <v>33</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>235</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H98" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I98" s="36">
+        <v>17</v>
+      </c>
+      <c r="I98" s="35">
         <v>44364</v>
       </c>
       <c r="K98" s="5"/>
@@ -36923,34 +37096,34 @@
     </row>
     <row r="99" spans="1:1363" s="3" customFormat="1">
       <c r="A99" s="15" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="35" t="s">
-        <v>64</v>
+        <v>335</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>162</v>
+        <v>14</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="I99" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="J99" s="53" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="I99" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J99" s="52" t="s">
+        <v>121</v>
       </c>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -37007,30 +37180,30 @@
     </row>
     <row r="100" spans="1:1363">
       <c r="A100" s="17" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="34" t="s">
-        <v>54</v>
+        <v>337</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" s="36">
+        <v>17</v>
+      </c>
+      <c r="I100" s="35">
         <v>44371</v>
       </c>
       <c r="K100" s="5"/>
@@ -38389,33 +38562,33 @@
     </row>
     <row r="101" spans="1:1363">
       <c r="A101" s="17" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>335</v>
+        <v>339</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>340</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F101" s="32" t="s">
-        <v>336</v>
+        <v>14</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I101" s="36">
+        <v>24</v>
+      </c>
+      <c r="I101" s="35">
         <v>44379</v>
       </c>
-      <c r="J101" s="36">
+      <c r="J101" s="35">
         <v>44383</v>
       </c>
       <c r="K101" s="5"/>
@@ -38473,33 +38646,33 @@
     </row>
     <row r="102" spans="1:1363">
       <c r="A102" s="17" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>174</v>
+        <v>343</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" s="36">
+        <v>24</v>
+      </c>
+      <c r="I102" s="35">
         <v>44393</v>
       </c>
-      <c r="J102" s="36">
+      <c r="J102" s="35">
         <v>44397</v>
       </c>
       <c r="K102" s="5"/>
@@ -38555,117 +38728,117 @@
       <c r="BI102" s="5"/>
       <c r="BJ102" s="5"/>
     </row>
-    <row r="103" spans="1:1363" s="62" customFormat="1" ht="31">
-      <c r="A103" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="B103" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E103" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="F103" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="G103" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H103" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" s="63">
+    <row r="103" spans="1:1363" s="61" customFormat="1" ht="31">
+      <c r="A103" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C103" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="G103" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="H103" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="62">
         <v>44399</v>
       </c>
-      <c r="J103" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="65"/>
-      <c r="S103" s="65"/>
-      <c r="T103" s="65"/>
-      <c r="U103" s="65"/>
-      <c r="V103" s="65"/>
-      <c r="W103" s="65"/>
-      <c r="X103" s="65"/>
-      <c r="Y103" s="65"/>
-      <c r="Z103" s="65"/>
-      <c r="AA103" s="65"/>
-      <c r="AB103" s="65"/>
-      <c r="AC103" s="65"/>
-      <c r="AD103" s="65"/>
-      <c r="AE103" s="65"/>
-      <c r="AF103" s="65"/>
-      <c r="AG103" s="65"/>
-      <c r="AH103" s="65"/>
-      <c r="AI103" s="65"/>
-      <c r="AJ103" s="65"/>
-      <c r="AK103" s="65"/>
-      <c r="AL103" s="65"/>
-      <c r="AM103" s="65"/>
-      <c r="AN103" s="65"/>
-      <c r="AO103" s="65"/>
-      <c r="AP103" s="65"/>
-      <c r="AQ103" s="65"/>
-      <c r="AR103" s="65"/>
-      <c r="AS103" s="65"/>
-      <c r="AT103" s="65"/>
-      <c r="AU103" s="65"/>
-      <c r="AV103" s="65"/>
-      <c r="AW103" s="65"/>
-      <c r="AX103" s="65"/>
-      <c r="AY103" s="65"/>
-      <c r="AZ103" s="65"/>
-      <c r="BA103" s="65"/>
-      <c r="BB103" s="65"/>
-      <c r="BC103" s="65"/>
-      <c r="BD103" s="65"/>
-      <c r="BE103" s="65"/>
-      <c r="BF103" s="65"/>
-      <c r="BG103" s="65"/>
-      <c r="BH103" s="65"/>
+      <c r="J103" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
+      <c r="N103" s="64"/>
+      <c r="O103" s="64"/>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="64"/>
+      <c r="R103" s="64"/>
+      <c r="S103" s="64"/>
+      <c r="T103" s="64"/>
+      <c r="U103" s="64"/>
+      <c r="V103" s="64"/>
+      <c r="W103" s="64"/>
+      <c r="X103" s="64"/>
+      <c r="Y103" s="64"/>
+      <c r="Z103" s="64"/>
+      <c r="AA103" s="64"/>
+      <c r="AB103" s="64"/>
+      <c r="AC103" s="64"/>
+      <c r="AD103" s="64"/>
+      <c r="AE103" s="64"/>
+      <c r="AF103" s="64"/>
+      <c r="AG103" s="64"/>
+      <c r="AH103" s="64"/>
+      <c r="AI103" s="64"/>
+      <c r="AJ103" s="64"/>
+      <c r="AK103" s="64"/>
+      <c r="AL103" s="64"/>
+      <c r="AM103" s="64"/>
+      <c r="AN103" s="64"/>
+      <c r="AO103" s="64"/>
+      <c r="AP103" s="64"/>
+      <c r="AQ103" s="64"/>
+      <c r="AR103" s="64"/>
+      <c r="AS103" s="64"/>
+      <c r="AT103" s="64"/>
+      <c r="AU103" s="64"/>
+      <c r="AV103" s="64"/>
+      <c r="AW103" s="64"/>
+      <c r="AX103" s="64"/>
+      <c r="AY103" s="64"/>
+      <c r="AZ103" s="64"/>
+      <c r="BA103" s="64"/>
+      <c r="BB103" s="64"/>
+      <c r="BC103" s="64"/>
+      <c r="BD103" s="64"/>
+      <c r="BE103" s="64"/>
+      <c r="BF103" s="64"/>
+      <c r="BG103" s="64"/>
+      <c r="BH103" s="64"/>
     </row>
     <row r="104" spans="1:1363">
       <c r="A104" s="17" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>350</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I104" s="36">
+        <v>17</v>
+      </c>
+      <c r="I104" s="35">
         <v>44412</v>
       </c>
-      <c r="J104" s="36">
+      <c r="J104" s="35">
         <v>44418</v>
       </c>
       <c r="K104" s="5"/>
@@ -38723,33 +38896,33 @@
     </row>
     <row r="105" spans="1:1363">
       <c r="A105" s="17" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>94</v>
+        <v>352</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H105" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I105" s="36">
+        <v>290</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="35">
         <v>44433</v>
       </c>
-      <c r="J105" s="36">
+      <c r="J105" s="35">
         <v>44439</v>
       </c>
       <c r="K105" s="5"/>
@@ -38807,33 +38980,33 @@
     </row>
     <row r="106" spans="1:1363">
       <c r="A106" s="17" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="31" t="s">
         <v>355</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="36">
+        <v>24</v>
+      </c>
+      <c r="I106" s="35">
         <v>44460</v>
       </c>
-      <c r="J106" s="36">
+      <c r="J106" s="35">
         <v>44462</v>
       </c>
       <c r="K106" s="5"/>
@@ -38891,33 +39064,33 @@
     </row>
     <row r="107" spans="1:1363">
       <c r="A107" s="17" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="32" t="s">
-        <v>174</v>
+        <v>357</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H107" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I107" s="36">
+        <v>17</v>
+      </c>
+      <c r="I107" s="35">
         <v>44468</v>
       </c>
-      <c r="J107" s="36">
+      <c r="J107" s="35">
         <v>44474</v>
       </c>
       <c r="K107" s="5"/>
@@ -38975,33 +39148,33 @@
     </row>
     <row r="108" spans="1:1363">
       <c r="A108" s="17" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>119</v>
+        <v>360</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F108" s="39" t="s">
-        <v>181</v>
+        <v>14</v>
+      </c>
+      <c r="F108" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I108" s="36">
+        <v>24</v>
+      </c>
+      <c r="I108" s="35">
         <v>44476</v>
       </c>
-      <c r="J108" s="36">
+      <c r="J108" s="35">
         <v>44481</v>
       </c>
       <c r="K108" s="5"/>
@@ -39059,33 +39232,33 @@
     </row>
     <row r="109" spans="1:1363">
       <c r="A109" s="17" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="C109" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>45</v>
+        <v>362</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="F109" s="39" t="s">
-        <v>154</v>
+        <v>41</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>221</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" s="36">
+        <v>24</v>
+      </c>
+      <c r="I109" s="35">
         <v>44490</v>
       </c>
-      <c r="J109" s="36">
+      <c r="J109" s="35">
         <v>44494</v>
       </c>
       <c r="K109" s="5"/>
@@ -39141,139 +39314,139 @@
       <c r="BI109" s="5"/>
       <c r="BJ109" s="5"/>
     </row>
-    <row r="110" spans="1:1363" s="62" customFormat="1" ht="31">
+    <row r="110" spans="1:1363" s="61" customFormat="1" ht="31">
       <c r="A110" s="29" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B110" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="C110" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F110" s="37" t="s">
-        <v>370</v>
-      </c>
       <c r="G110" s="29" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H110" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="54">
+        <v>24</v>
+      </c>
+      <c r="I110" s="53">
         <v>44512</v>
       </c>
-      <c r="J110" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="K110" s="65"/>
-      <c r="L110" s="65"/>
-      <c r="M110" s="65"/>
-      <c r="N110" s="65"/>
-      <c r="O110" s="65"/>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="65"/>
-      <c r="R110" s="65"/>
-      <c r="S110" s="65"/>
-      <c r="T110" s="65"/>
-      <c r="U110" s="65"/>
-      <c r="V110" s="65"/>
-      <c r="W110" s="65"/>
-      <c r="X110" s="65"/>
-      <c r="Y110" s="65"/>
-      <c r="Z110" s="65"/>
-      <c r="AA110" s="65"/>
-      <c r="AB110" s="65"/>
-      <c r="AC110" s="65"/>
-      <c r="AD110" s="65"/>
-      <c r="AE110" s="65"/>
-      <c r="AF110" s="65"/>
-      <c r="AG110" s="65"/>
-      <c r="AH110" s="65"/>
-      <c r="AI110" s="65"/>
-      <c r="AJ110" s="65"/>
-      <c r="AK110" s="65"/>
-      <c r="AL110" s="65"/>
-      <c r="AM110" s="65"/>
-      <c r="AN110" s="65"/>
-      <c r="AO110" s="65"/>
-      <c r="AP110" s="65"/>
-      <c r="AQ110" s="65"/>
-      <c r="AR110" s="65"/>
-      <c r="AS110" s="65"/>
-      <c r="AT110" s="65"/>
-      <c r="AU110" s="65"/>
-      <c r="AV110" s="65"/>
-      <c r="AW110" s="65"/>
-      <c r="AX110" s="65"/>
-      <c r="AY110" s="65"/>
-      <c r="AZ110" s="65"/>
-      <c r="BA110" s="65"/>
-      <c r="BB110" s="65"/>
-      <c r="BC110" s="65"/>
-      <c r="BD110" s="65"/>
-      <c r="BE110" s="65"/>
-      <c r="BF110" s="65"/>
-      <c r="BG110" s="65"/>
-      <c r="BH110" s="65"/>
-      <c r="BI110" s="65"/>
-      <c r="BJ110" s="65"/>
-      <c r="BK110" s="65"/>
-      <c r="BL110" s="65"/>
-      <c r="BM110" s="65"/>
-      <c r="BN110" s="65"/>
-      <c r="BO110" s="65"/>
-      <c r="BP110" s="65"/>
-      <c r="BQ110" s="65"/>
-      <c r="BR110" s="65"/>
-      <c r="BS110" s="65"/>
-      <c r="BT110" s="65"/>
-      <c r="BU110" s="65"/>
-      <c r="BV110" s="65"/>
-      <c r="BW110" s="65"/>
-      <c r="BX110" s="65"/>
-      <c r="BY110" s="65"/>
-      <c r="BZ110" s="65"/>
-      <c r="CA110" s="65"/>
-      <c r="CB110" s="65"/>
-      <c r="CC110" s="65"/>
-      <c r="CD110" s="65"/>
+      <c r="J110" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="K110" s="64"/>
+      <c r="L110" s="64"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="64"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="64"/>
+      <c r="Q110" s="64"/>
+      <c r="R110" s="64"/>
+      <c r="S110" s="64"/>
+      <c r="T110" s="64"/>
+      <c r="U110" s="64"/>
+      <c r="V110" s="64"/>
+      <c r="W110" s="64"/>
+      <c r="X110" s="64"/>
+      <c r="Y110" s="64"/>
+      <c r="Z110" s="64"/>
+      <c r="AA110" s="64"/>
+      <c r="AB110" s="64"/>
+      <c r="AC110" s="64"/>
+      <c r="AD110" s="64"/>
+      <c r="AE110" s="64"/>
+      <c r="AF110" s="64"/>
+      <c r="AG110" s="64"/>
+      <c r="AH110" s="64"/>
+      <c r="AI110" s="64"/>
+      <c r="AJ110" s="64"/>
+      <c r="AK110" s="64"/>
+      <c r="AL110" s="64"/>
+      <c r="AM110" s="64"/>
+      <c r="AN110" s="64"/>
+      <c r="AO110" s="64"/>
+      <c r="AP110" s="64"/>
+      <c r="AQ110" s="64"/>
+      <c r="AR110" s="64"/>
+      <c r="AS110" s="64"/>
+      <c r="AT110" s="64"/>
+      <c r="AU110" s="64"/>
+      <c r="AV110" s="64"/>
+      <c r="AW110" s="64"/>
+      <c r="AX110" s="64"/>
+      <c r="AY110" s="64"/>
+      <c r="AZ110" s="64"/>
+      <c r="BA110" s="64"/>
+      <c r="BB110" s="64"/>
+      <c r="BC110" s="64"/>
+      <c r="BD110" s="64"/>
+      <c r="BE110" s="64"/>
+      <c r="BF110" s="64"/>
+      <c r="BG110" s="64"/>
+      <c r="BH110" s="64"/>
+      <c r="BI110" s="64"/>
+      <c r="BJ110" s="64"/>
+      <c r="BK110" s="64"/>
+      <c r="BL110" s="64"/>
+      <c r="BM110" s="64"/>
+      <c r="BN110" s="64"/>
+      <c r="BO110" s="64"/>
+      <c r="BP110" s="64"/>
+      <c r="BQ110" s="64"/>
+      <c r="BR110" s="64"/>
+      <c r="BS110" s="64"/>
+      <c r="BT110" s="64"/>
+      <c r="BU110" s="64"/>
+      <c r="BV110" s="64"/>
+      <c r="BW110" s="64"/>
+      <c r="BX110" s="64"/>
+      <c r="BY110" s="64"/>
+      <c r="BZ110" s="64"/>
+      <c r="CA110" s="64"/>
+      <c r="CB110" s="64"/>
+      <c r="CC110" s="64"/>
+      <c r="CD110" s="64"/>
     </row>
     <row r="111" spans="1:1363">
       <c r="A111" s="17" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>69</v>
+        <v>367</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H111" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I111" s="36">
+        <v>17</v>
+      </c>
+      <c r="I111" s="35">
         <v>44541</v>
       </c>
-      <c r="J111" s="36">
+      <c r="J111" s="35">
         <v>44544</v>
       </c>
       <c r="K111" s="5"/>
@@ -39331,33 +39504,33 @@
     </row>
     <row r="112" spans="1:1363">
       <c r="A112" s="17" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>370</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="I112" s="36">
+        <v>17</v>
+      </c>
+      <c r="I112" s="35">
         <v>44567</v>
       </c>
-      <c r="J112" s="36">
+      <c r="J112" s="35">
         <v>44573</v>
       </c>
       <c r="K112" s="5"/>
@@ -39415,33 +39588,33 @@
     </row>
     <row r="113" spans="1:86">
       <c r="A113" s="17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="31" t="s">
         <v>373</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H113" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I113" s="36">
+        <v>24</v>
+      </c>
+      <c r="I113" s="35">
         <v>44577</v>
       </c>
-      <c r="J113" s="36">
+      <c r="J113" s="35">
         <v>44581</v>
       </c>
       <c r="K113" s="5"/>
@@ -39497,143 +39670,143 @@
       <c r="BI113" s="5"/>
       <c r="BJ113" s="5"/>
     </row>
-    <row r="114" spans="1:86" s="43" customFormat="1" ht="31">
+    <row r="114" spans="1:86" s="42" customFormat="1" ht="31">
       <c r="A114" s="29" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="37" t="s">
-        <v>132</v>
+        <v>376</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F114" s="72" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F114" s="71" t="s">
+        <v>29</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H114" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" s="54">
+        <v>24</v>
+      </c>
+      <c r="I114" s="53">
         <v>44580</v>
       </c>
-      <c r="J114" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="K114" s="70"/>
-      <c r="L114" s="70"/>
-      <c r="M114" s="70"/>
-      <c r="N114" s="70"/>
-      <c r="O114" s="70"/>
-      <c r="P114" s="70"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="70"/>
-      <c r="S114" s="70"/>
-      <c r="T114" s="70"/>
-      <c r="U114" s="70"/>
-      <c r="V114" s="70"/>
-      <c r="W114" s="70"/>
-      <c r="X114" s="70"/>
-      <c r="Y114" s="70"/>
-      <c r="Z114" s="70"/>
-      <c r="AA114" s="70"/>
-      <c r="AB114" s="70"/>
-      <c r="AC114" s="70"/>
-      <c r="AD114" s="70"/>
-      <c r="AE114" s="70"/>
-      <c r="AF114" s="70"/>
-      <c r="AG114" s="70"/>
-      <c r="AH114" s="70"/>
-      <c r="AI114" s="70"/>
-      <c r="AJ114" s="70"/>
-      <c r="AK114" s="70"/>
-      <c r="AL114" s="70"/>
-      <c r="AM114" s="70"/>
-      <c r="AN114" s="70"/>
-      <c r="AO114" s="70"/>
-      <c r="AP114" s="70"/>
-      <c r="AQ114" s="70"/>
-      <c r="AR114" s="70"/>
-      <c r="AS114" s="70"/>
-      <c r="AT114" s="70"/>
-      <c r="AU114" s="70"/>
-      <c r="AV114" s="70"/>
-      <c r="AW114" s="70"/>
-      <c r="AX114" s="70"/>
-      <c r="AY114" s="70"/>
-      <c r="AZ114" s="70"/>
-      <c r="BA114" s="70"/>
-      <c r="BB114" s="70"/>
-      <c r="BC114" s="70"/>
-      <c r="BD114" s="70"/>
-      <c r="BE114" s="70"/>
-      <c r="BF114" s="70"/>
-      <c r="BG114" s="70"/>
-      <c r="BH114" s="70"/>
-      <c r="BI114" s="70"/>
-      <c r="BJ114" s="70"/>
-      <c r="BK114" s="70"/>
-      <c r="BL114" s="70"/>
-      <c r="BM114" s="70"/>
-      <c r="BN114" s="70"/>
-      <c r="BO114" s="70"/>
-      <c r="BP114" s="70"/>
-      <c r="BQ114" s="70"/>
-      <c r="BR114" s="70"/>
-      <c r="BS114" s="70"/>
-      <c r="BT114" s="70"/>
-      <c r="BU114" s="70"/>
-      <c r="BV114" s="70"/>
-      <c r="BW114" s="70"/>
-      <c r="BX114" s="70"/>
-      <c r="BY114" s="70"/>
-      <c r="BZ114" s="70"/>
-      <c r="CA114" s="70"/>
-      <c r="CB114" s="70"/>
-      <c r="CC114" s="70"/>
-      <c r="CD114" s="70"/>
-      <c r="CE114" s="70"/>
-      <c r="CF114" s="70"/>
-      <c r="CG114" s="70"/>
-      <c r="CH114" s="70"/>
+      <c r="J114" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="K114" s="69"/>
+      <c r="L114" s="69"/>
+      <c r="M114" s="69"/>
+      <c r="N114" s="69"/>
+      <c r="O114" s="69"/>
+      <c r="P114" s="69"/>
+      <c r="Q114" s="69"/>
+      <c r="R114" s="69"/>
+      <c r="S114" s="69"/>
+      <c r="T114" s="69"/>
+      <c r="U114" s="69"/>
+      <c r="V114" s="69"/>
+      <c r="W114" s="69"/>
+      <c r="X114" s="69"/>
+      <c r="Y114" s="69"/>
+      <c r="Z114" s="69"/>
+      <c r="AA114" s="69"/>
+      <c r="AB114" s="69"/>
+      <c r="AC114" s="69"/>
+      <c r="AD114" s="69"/>
+      <c r="AE114" s="69"/>
+      <c r="AF114" s="69"/>
+      <c r="AG114" s="69"/>
+      <c r="AH114" s="69"/>
+      <c r="AI114" s="69"/>
+      <c r="AJ114" s="69"/>
+      <c r="AK114" s="69"/>
+      <c r="AL114" s="69"/>
+      <c r="AM114" s="69"/>
+      <c r="AN114" s="69"/>
+      <c r="AO114" s="69"/>
+      <c r="AP114" s="69"/>
+      <c r="AQ114" s="69"/>
+      <c r="AR114" s="69"/>
+      <c r="AS114" s="69"/>
+      <c r="AT114" s="69"/>
+      <c r="AU114" s="69"/>
+      <c r="AV114" s="69"/>
+      <c r="AW114" s="69"/>
+      <c r="AX114" s="69"/>
+      <c r="AY114" s="69"/>
+      <c r="AZ114" s="69"/>
+      <c r="BA114" s="69"/>
+      <c r="BB114" s="69"/>
+      <c r="BC114" s="69"/>
+      <c r="BD114" s="69"/>
+      <c r="BE114" s="69"/>
+      <c r="BF114" s="69"/>
+      <c r="BG114" s="69"/>
+      <c r="BH114" s="69"/>
+      <c r="BI114" s="69"/>
+      <c r="BJ114" s="69"/>
+      <c r="BK114" s="69"/>
+      <c r="BL114" s="69"/>
+      <c r="BM114" s="69"/>
+      <c r="BN114" s="69"/>
+      <c r="BO114" s="69"/>
+      <c r="BP114" s="69"/>
+      <c r="BQ114" s="69"/>
+      <c r="BR114" s="69"/>
+      <c r="BS114" s="69"/>
+      <c r="BT114" s="69"/>
+      <c r="BU114" s="69"/>
+      <c r="BV114" s="69"/>
+      <c r="BW114" s="69"/>
+      <c r="BX114" s="69"/>
+      <c r="BY114" s="69"/>
+      <c r="BZ114" s="69"/>
+      <c r="CA114" s="69"/>
+      <c r="CB114" s="69"/>
+      <c r="CC114" s="69"/>
+      <c r="CD114" s="69"/>
+      <c r="CE114" s="69"/>
+      <c r="CF114" s="69"/>
+      <c r="CG114" s="69"/>
+      <c r="CH114" s="69"/>
     </row>
     <row r="115" spans="1:86">
       <c r="A115" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>335</v>
+        <v>378</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>340</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I115" s="66">
+        <v>24</v>
+      </c>
+      <c r="I115" s="65">
         <v>44589</v>
       </c>
-      <c r="J115" s="68">
+      <c r="J115" s="67">
         <v>44600</v>
       </c>
       <c r="K115" s="5"/>
@@ -39715,33 +39888,33 @@
     </row>
     <row r="116" spans="1:86">
       <c r="A116" s="17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="34" t="s">
-        <v>388</v>
+        <v>381</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>382</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="F116" s="27" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H116" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I116" s="66">
+        <v>24</v>
+      </c>
+      <c r="I116" s="65">
         <v>44595</v>
       </c>
-      <c r="J116" s="68">
+      <c r="J116" s="67">
         <v>44600</v>
       </c>
       <c r="K116" s="5"/>
@@ -39823,33 +39996,33 @@
     </row>
     <row r="117" spans="1:86">
       <c r="A117" s="17" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="33" t="s">
         <v>355</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F117" s="27" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="I117" s="66">
+        <v>385</v>
+      </c>
+      <c r="I117" s="65">
         <v>44626</v>
       </c>
-      <c r="J117" s="68">
+      <c r="J117" s="67">
         <v>44629</v>
       </c>
       <c r="K117" s="5"/>
@@ -39929,143 +40102,143 @@
       <c r="CG117" s="5"/>
       <c r="CH117" s="5"/>
     </row>
-    <row r="118" spans="1:86" s="43" customFormat="1" ht="31">
+    <row r="118" spans="1:86" s="42" customFormat="1" ht="31">
       <c r="A118" s="29" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="C118" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="43" t="s">
-        <v>215</v>
+        <v>414</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>300</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="71">
+        <v>24</v>
+      </c>
+      <c r="I118" s="70">
         <v>44642</v>
       </c>
-      <c r="J118" s="59" t="s">
-        <v>374</v>
-      </c>
-      <c r="K118" s="70"/>
-      <c r="L118" s="70"/>
-      <c r="M118" s="70"/>
-      <c r="N118" s="70"/>
-      <c r="O118" s="70"/>
-      <c r="P118" s="70"/>
-      <c r="Q118" s="70"/>
-      <c r="R118" s="70"/>
-      <c r="S118" s="70"/>
-      <c r="T118" s="70"/>
-      <c r="U118" s="70"/>
-      <c r="V118" s="70"/>
-      <c r="W118" s="70"/>
-      <c r="X118" s="70"/>
-      <c r="Y118" s="70"/>
-      <c r="Z118" s="70"/>
-      <c r="AA118" s="70"/>
-      <c r="AB118" s="70"/>
-      <c r="AC118" s="70"/>
-      <c r="AD118" s="70"/>
-      <c r="AE118" s="70"/>
-      <c r="AF118" s="70"/>
-      <c r="AG118" s="70"/>
-      <c r="AH118" s="70"/>
-      <c r="AI118" s="70"/>
-      <c r="AJ118" s="70"/>
-      <c r="AK118" s="70"/>
-      <c r="AL118" s="70"/>
-      <c r="AM118" s="70"/>
-      <c r="AN118" s="70"/>
-      <c r="AO118" s="70"/>
-      <c r="AP118" s="70"/>
-      <c r="AQ118" s="70"/>
-      <c r="AR118" s="70"/>
-      <c r="AS118" s="70"/>
-      <c r="AT118" s="70"/>
-      <c r="AU118" s="70"/>
-      <c r="AV118" s="70"/>
-      <c r="AW118" s="70"/>
-      <c r="AX118" s="70"/>
-      <c r="AY118" s="70"/>
-      <c r="AZ118" s="70"/>
-      <c r="BA118" s="70"/>
-      <c r="BB118" s="70"/>
-      <c r="BC118" s="70"/>
-      <c r="BD118" s="70"/>
-      <c r="BE118" s="70"/>
-      <c r="BF118" s="70"/>
-      <c r="BG118" s="70"/>
-      <c r="BH118" s="70"/>
-      <c r="BI118" s="70"/>
-      <c r="BJ118" s="70"/>
-      <c r="BK118" s="70"/>
-      <c r="BL118" s="70"/>
-      <c r="BM118" s="70"/>
-      <c r="BN118" s="70"/>
-      <c r="BO118" s="70"/>
-      <c r="BP118" s="70"/>
-      <c r="BQ118" s="70"/>
-      <c r="BR118" s="70"/>
-      <c r="BS118" s="70"/>
-      <c r="BT118" s="70"/>
-      <c r="BU118" s="70"/>
-      <c r="BV118" s="70"/>
-      <c r="BW118" s="70"/>
-      <c r="BX118" s="70"/>
-      <c r="BY118" s="70"/>
-      <c r="BZ118" s="70"/>
-      <c r="CA118" s="70"/>
-      <c r="CB118" s="70"/>
-      <c r="CC118" s="70"/>
-      <c r="CD118" s="70"/>
-      <c r="CE118" s="70"/>
-      <c r="CF118" s="70"/>
-      <c r="CG118" s="70"/>
-      <c r="CH118" s="70"/>
+      <c r="J118" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="K118" s="69"/>
+      <c r="L118" s="69"/>
+      <c r="M118" s="69"/>
+      <c r="N118" s="69"/>
+      <c r="O118" s="69"/>
+      <c r="P118" s="69"/>
+      <c r="Q118" s="69"/>
+      <c r="R118" s="69"/>
+      <c r="S118" s="69"/>
+      <c r="T118" s="69"/>
+      <c r="U118" s="69"/>
+      <c r="V118" s="69"/>
+      <c r="W118" s="69"/>
+      <c r="X118" s="69"/>
+      <c r="Y118" s="69"/>
+      <c r="Z118" s="69"/>
+      <c r="AA118" s="69"/>
+      <c r="AB118" s="69"/>
+      <c r="AC118" s="69"/>
+      <c r="AD118" s="69"/>
+      <c r="AE118" s="69"/>
+      <c r="AF118" s="69"/>
+      <c r="AG118" s="69"/>
+      <c r="AH118" s="69"/>
+      <c r="AI118" s="69"/>
+      <c r="AJ118" s="69"/>
+      <c r="AK118" s="69"/>
+      <c r="AL118" s="69"/>
+      <c r="AM118" s="69"/>
+      <c r="AN118" s="69"/>
+      <c r="AO118" s="69"/>
+      <c r="AP118" s="69"/>
+      <c r="AQ118" s="69"/>
+      <c r="AR118" s="69"/>
+      <c r="AS118" s="69"/>
+      <c r="AT118" s="69"/>
+      <c r="AU118" s="69"/>
+      <c r="AV118" s="69"/>
+      <c r="AW118" s="69"/>
+      <c r="AX118" s="69"/>
+      <c r="AY118" s="69"/>
+      <c r="AZ118" s="69"/>
+      <c r="BA118" s="69"/>
+      <c r="BB118" s="69"/>
+      <c r="BC118" s="69"/>
+      <c r="BD118" s="69"/>
+      <c r="BE118" s="69"/>
+      <c r="BF118" s="69"/>
+      <c r="BG118" s="69"/>
+      <c r="BH118" s="69"/>
+      <c r="BI118" s="69"/>
+      <c r="BJ118" s="69"/>
+      <c r="BK118" s="69"/>
+      <c r="BL118" s="69"/>
+      <c r="BM118" s="69"/>
+      <c r="BN118" s="69"/>
+      <c r="BO118" s="69"/>
+      <c r="BP118" s="69"/>
+      <c r="BQ118" s="69"/>
+      <c r="BR118" s="69"/>
+      <c r="BS118" s="69"/>
+      <c r="BT118" s="69"/>
+      <c r="BU118" s="69"/>
+      <c r="BV118" s="69"/>
+      <c r="BW118" s="69"/>
+      <c r="BX118" s="69"/>
+      <c r="BY118" s="69"/>
+      <c r="BZ118" s="69"/>
+      <c r="CA118" s="69"/>
+      <c r="CB118" s="69"/>
+      <c r="CC118" s="69"/>
+      <c r="CD118" s="69"/>
+      <c r="CE118" s="69"/>
+      <c r="CF118" s="69"/>
+      <c r="CG118" s="69"/>
+      <c r="CH118" s="69"/>
     </row>
     <row r="119" spans="1:86">
       <c r="A119" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>371</v>
+        <v>388</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>370</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H119" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" s="66">
+        <v>24</v>
+      </c>
+      <c r="I119" s="65">
         <v>44660</v>
       </c>
-      <c r="J119" s="68">
+      <c r="J119" s="67">
         <v>44663</v>
       </c>
       <c r="K119" s="5"/>
@@ -40123,33 +40296,33 @@
     </row>
     <row r="120" spans="1:86">
       <c r="A120" s="17" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>45</v>
+        <v>416</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H120" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120" s="66">
+        <v>24</v>
+      </c>
+      <c r="I120" s="65">
         <v>44667</v>
       </c>
-      <c r="J120" s="68">
+      <c r="J120" s="67">
         <v>44670</v>
       </c>
       <c r="K120" s="5"/>
@@ -40207,33 +40380,33 @@
     </row>
     <row r="121" spans="1:86">
       <c r="A121" s="17" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>132</v>
+        <v>417</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="I121" s="67">
+        <v>385</v>
+      </c>
+      <c r="I121" s="66">
         <v>44674</v>
       </c>
-      <c r="J121" s="69">
+      <c r="J121" s="68">
         <v>44677</v>
       </c>
       <c r="K121" s="5"/>
@@ -40290,6 +40463,30 @@
       <c r="BJ121" s="5"/>
     </row>
     <row r="122" spans="1:86">
+      <c r="A122" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H122" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -40344,6 +40541,30 @@
       <c r="BJ122" s="5"/>
     </row>
     <row r="123" spans="1:86">
+      <c r="A123" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H123" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -40398,6 +40619,30 @@
       <c r="BJ123" s="5"/>
     </row>
     <row r="124" spans="1:86">
+      <c r="A124" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H124" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -40452,6 +40697,30 @@
       <c r="BJ124" s="5"/>
     </row>
     <row r="125" spans="1:86">
+      <c r="A125" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H125" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -40506,6 +40775,30 @@
       <c r="BJ125" s="5"/>
     </row>
     <row r="126" spans="1:86">
+      <c r="A126" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H126" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -40560,6 +40853,30 @@
       <c r="BJ126" s="5"/>
     </row>
     <row r="127" spans="1:86">
+      <c r="A127" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H127" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -40614,6 +40931,30 @@
       <c r="BJ127" s="5"/>
     </row>
     <row r="128" spans="1:86">
+      <c r="A128" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H128" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -40667,7 +41008,31 @@
       <c r="BI128" s="5"/>
       <c r="BJ128" s="5"/>
     </row>
-    <row r="129" spans="11:62">
+    <row r="129" spans="1:62">
+      <c r="A129" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H129" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -40721,7 +41086,31 @@
       <c r="BI129" s="5"/>
       <c r="BJ129" s="5"/>
     </row>
-    <row r="130" spans="11:62">
+    <row r="130" spans="1:62">
+      <c r="A130" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H130" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -40775,7 +41164,31 @@
       <c r="BI130" s="5"/>
       <c r="BJ130" s="5"/>
     </row>
-    <row r="131" spans="11:62">
+    <row r="131" spans="1:62">
+      <c r="A131" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H131" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -40829,7 +41242,31 @@
       <c r="BI131" s="5"/>
       <c r="BJ131" s="5"/>
     </row>
-    <row r="132" spans="11:62">
+    <row r="132" spans="1:62">
+      <c r="A132" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H132" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -40883,7 +41320,31 @@
       <c r="BI132" s="5"/>
       <c r="BJ132" s="5"/>
     </row>
-    <row r="133" spans="11:62">
+    <row r="133" spans="1:62">
+      <c r="A133" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H133" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
@@ -40937,7 +41398,31 @@
       <c r="BI133" s="5"/>
       <c r="BJ133" s="5"/>
     </row>
-    <row r="134" spans="11:62">
+    <row r="134" spans="1:62">
+      <c r="A134" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H134" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
@@ -40991,7 +41476,31 @@
       <c r="BI134" s="5"/>
       <c r="BJ134" s="5"/>
     </row>
-    <row r="135" spans="11:62">
+    <row r="135" spans="1:62">
+      <c r="A135" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H135" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
@@ -41045,7 +41554,31 @@
       <c r="BI135" s="5"/>
       <c r="BJ135" s="5"/>
     </row>
-    <row r="136" spans="11:62">
+    <row r="136" spans="1:62">
+      <c r="A136" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H136" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
@@ -41099,7 +41632,31 @@
       <c r="BI136" s="5"/>
       <c r="BJ136" s="5"/>
     </row>
-    <row r="137" spans="11:62">
+    <row r="137" spans="1:62">
+      <c r="A137" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H137" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
@@ -41153,7 +41710,31 @@
       <c r="BI137" s="5"/>
       <c r="BJ137" s="5"/>
     </row>
-    <row r="138" spans="11:62">
+    <row r="138" spans="1:62">
+      <c r="A138" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H138" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
@@ -41207,9 +41788,165 @@
       <c r="BI138" s="5"/>
       <c r="BJ138" s="5"/>
     </row>
+    <row r="139" spans="1:62">
+      <c r="A139" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H139" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:62">
+      <c r="A140" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H140" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:62">
+      <c r="A141" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H141" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:62">
+      <c r="A142" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H142" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:62">
+      <c r="A143" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:62">
+      <c r="A144" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H144" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DonorID"</formula1>
     </dataValidation>
@@ -41231,8 +41968,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"SampleSex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E72 E77 E82:E1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>"Caucasian, Hispanic, Hispanic (MX), African american/Black"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E82:E1048576 E77 E2:E10 E12:E72" xr:uid="{00000000-0002-0000-0000-000008000000}">
+      <formula1>"American Indian or Alaska Native, Caucasian, Hispanic, Hispanic (MX), Asian, African american/Black"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"SampleEthnicity"</formula1>
@@ -41249,6 +41986,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H115:H121" xr:uid="{908B4E7D-0186-4E2B-A60A-385815503CC7}">
       <formula1>"Penn, nPod"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{98871B29-57C8-4319-8DAA-5B4C3F03802F}">
+      <formula1>"Caucasian, Hispanic, Hispanic (MX), Asian, African american/Black"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/metadata/latest/PancDB_Donors.xlsx
+++ b/assets/metadata/latest/PancDB_Donors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsamanta\Box\HPAP-IBI\Pancdb-Metadata\current_v2.1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Library/CloudStorage/Box-Box/HPAP-IBI/Pancdb-Metadata/current_v3.1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295CA6B0-D0B2-4278-B8C2-4683873FE85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4A189-E2FD-7B46-8DB7-2396E4332A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donors" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="501">
   <si>
     <t xml:space="preserve">DonorID </t>
   </si>
@@ -1485,13 +1485,70 @@
   </si>
   <si>
     <t xml:space="preserve">RRID:SAMN38373908 </t>
+  </si>
+  <si>
+    <t>HPAP-162</t>
+  </si>
+  <si>
+    <t>HPAP-163</t>
+  </si>
+  <si>
+    <t>HPAP-164</t>
+  </si>
+  <si>
+    <t>HPAP-165</t>
+  </si>
+  <si>
+    <t>HPAP-166</t>
+  </si>
+  <si>
+    <t>HPAP-167</t>
+  </si>
+  <si>
+    <t>HPAP-168</t>
+  </si>
+  <si>
+    <t>HPAP-169</t>
+  </si>
+  <si>
+    <t>RRID:SAMN39459272</t>
+  </si>
+  <si>
+    <t>RRID:SAMN39459273</t>
+  </si>
+  <si>
+    <t>RRID:SAMN39459274</t>
+  </si>
+  <si>
+    <t>RRID:SAMN39459275</t>
+  </si>
+  <si>
+    <t>RRID:SAMN41604304</t>
+  </si>
+  <si>
+    <t>RRID:SAMN41604305</t>
+  </si>
+  <si>
+    <t>RRID:SAMN41604306</t>
+  </si>
+  <si>
+    <t>RRID:SAMN41604307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRID:SAMN41604308 </t>
+  </si>
+  <si>
+    <t>HPAP-171</t>
+  </si>
+  <si>
+    <t>44yo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1556,6 +1613,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1567,6 +1625,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calbri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1649,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1811,6 +1875,18 @@
     <xf numFmtId="14" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,9 +1905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1869,7 +1945,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1975,7 +2051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2117,7 +2193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2125,27 +2201,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH160"/>
+  <dimension ref="A1:CH169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E161" sqref="E161"/>
+      <selection pane="bottomRight" activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
@@ -2180,7 +2256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +2288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2244,7 +2320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -2276,7 +2352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -2308,7 +2384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -2372,7 +2448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2404,7 +2480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -2436,7 +2512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -2468,7 +2544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -2500,7 +2576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -2532,7 +2608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -2564,7 +2640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -2596,7 +2672,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -2628,7 +2704,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -2660,7 +2736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:83">
+    <row r="17" spans="1:83" ht="17">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -2692,7 +2768,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:83">
+    <row r="18" spans="1:83" ht="17">
       <c r="A18" s="5" t="s">
         <v>88</v>
       </c>
@@ -2724,7 +2800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:83">
+    <row r="19" spans="1:83" ht="17">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -2756,7 +2832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:83">
+    <row r="20" spans="1:83" ht="17">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -2788,7 +2864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:83">
+    <row r="21" spans="1:83" ht="17">
       <c r="A21" s="5" t="s">
         <v>99</v>
       </c>
@@ -2820,7 +2896,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:83">
+    <row r="22" spans="1:83" ht="17">
       <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
@@ -2852,7 +2928,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:83">
+    <row r="23" spans="1:83" ht="17">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
@@ -2884,7 +2960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:83">
+    <row r="24" spans="1:83" ht="17">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
@@ -2916,7 +2992,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:83">
+    <row r="25" spans="1:83" ht="17">
       <c r="A25" s="5" t="s">
         <v>115</v>
       </c>
@@ -2948,7 +3024,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:83" s="3" customFormat="1">
+    <row r="26" spans="1:83" s="3" customFormat="1" ht="17">
       <c r="A26" s="13" t="s">
         <v>118</v>
       </c>
@@ -3051,7 +3127,7 @@
       <c r="CD26"/>
       <c r="CE26"/>
     </row>
-    <row r="27" spans="1:83">
+    <row r="27" spans="1:83" ht="17">
       <c r="A27" s="5" t="s">
         <v>122</v>
       </c>
@@ -3083,7 +3159,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="28" spans="1:83">
+    <row r="28" spans="1:83" ht="17">
       <c r="A28" s="5" t="s">
         <v>124</v>
       </c>
@@ -3115,7 +3191,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="29" spans="1:83">
+    <row r="29" spans="1:83" ht="17">
       <c r="A29" s="5" t="s">
         <v>126</v>
       </c>
@@ -3147,7 +3223,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="30" spans="1:83">
+    <row r="30" spans="1:83" ht="17">
       <c r="A30" s="5" t="s">
         <v>130</v>
       </c>
@@ -3179,7 +3255,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="31" spans="1:83" s="3" customFormat="1">
+    <row r="31" spans="1:83" s="3" customFormat="1" ht="17">
       <c r="A31" s="13" t="s">
         <v>133</v>
       </c>
@@ -3282,7 +3358,7 @@
       <c r="CD31"/>
       <c r="CE31"/>
     </row>
-    <row r="32" spans="1:83" s="3" customFormat="1">
+    <row r="32" spans="1:83" s="3" customFormat="1" ht="17">
       <c r="A32" s="13" t="s">
         <v>135</v>
       </c>
@@ -3385,7 +3461,7 @@
       <c r="CD32"/>
       <c r="CE32"/>
     </row>
-    <row r="33" spans="1:83">
+    <row r="33" spans="1:83" ht="17">
       <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
@@ -3417,7 +3493,7 @@
         <v>43369</v>
       </c>
     </row>
-    <row r="34" spans="1:83">
+    <row r="34" spans="1:83" ht="17">
       <c r="A34" s="5" t="s">
         <v>141</v>
       </c>
@@ -3449,7 +3525,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="35" spans="1:83">
+    <row r="35" spans="1:83" ht="17">
       <c r="A35" s="5" t="s">
         <v>144</v>
       </c>
@@ -3481,7 +3557,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="36" spans="1:83">
+    <row r="36" spans="1:83" ht="17">
       <c r="A36" s="5" t="s">
         <v>146</v>
       </c>
@@ -3513,7 +3589,7 @@
         <v>43482</v>
       </c>
     </row>
-    <row r="37" spans="1:83">
+    <row r="37" spans="1:83" ht="17">
       <c r="A37" s="5" t="s">
         <v>149</v>
       </c>
@@ -3545,7 +3621,7 @@
         <v>43489</v>
       </c>
     </row>
-    <row r="38" spans="1:83">
+    <row r="38" spans="1:83" ht="17">
       <c r="A38" s="5" t="s">
         <v>151</v>
       </c>
@@ -3577,7 +3653,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="39" spans="1:83">
+    <row r="39" spans="1:83" ht="17">
       <c r="A39" s="5" t="s">
         <v>153</v>
       </c>
@@ -3609,7 +3685,7 @@
         <v>43564</v>
       </c>
     </row>
-    <row r="40" spans="1:83">
+    <row r="40" spans="1:83" ht="17">
       <c r="A40" s="5" t="s">
         <v>155</v>
       </c>
@@ -3641,7 +3717,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="41" spans="1:83">
+    <row r="41" spans="1:83" ht="17">
       <c r="A41" s="5" t="s">
         <v>158</v>
       </c>
@@ -3673,7 +3749,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="42" spans="1:83" s="3" customFormat="1">
+    <row r="42" spans="1:83" s="3" customFormat="1" ht="17">
       <c r="A42" s="13" t="s">
         <v>160</v>
       </c>
@@ -3776,7 +3852,7 @@
       <c r="CD42"/>
       <c r="CE42"/>
     </row>
-    <row r="43" spans="1:83">
+    <row r="43" spans="1:83" ht="17">
       <c r="A43" s="5" t="s">
         <v>163</v>
       </c>
@@ -3808,7 +3884,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="44" spans="1:83">
+    <row r="44" spans="1:83" ht="17">
       <c r="A44" s="5" t="s">
         <v>166</v>
       </c>
@@ -3840,7 +3916,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="45" spans="1:83">
+    <row r="45" spans="1:83" ht="17">
       <c r="A45" s="5" t="s">
         <v>169</v>
       </c>
@@ -3872,7 +3948,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="46" spans="1:83">
+    <row r="46" spans="1:83" ht="17">
       <c r="A46" s="5" t="s">
         <v>171</v>
       </c>
@@ -3904,7 +3980,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="47" spans="1:83" s="4" customFormat="1">
+    <row r="47" spans="1:83" s="4" customFormat="1" ht="17">
       <c r="A47" s="14" t="s">
         <v>174</v>
       </c>
@@ -3986,7 +4062,7 @@
       <c r="BI47"/>
       <c r="BJ47"/>
     </row>
-    <row r="48" spans="1:83">
+    <row r="48" spans="1:83" ht="17">
       <c r="A48" s="5" t="s">
         <v>178</v>
       </c>
@@ -4018,7 +4094,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="49" spans="1:83" s="3" customFormat="1">
+    <row r="49" spans="1:83" s="3" customFormat="1" ht="17">
       <c r="A49" s="13" t="s">
         <v>181</v>
       </c>
@@ -4121,7 +4197,7 @@
       <c r="CD49"/>
       <c r="CE49"/>
     </row>
-    <row r="50" spans="1:83">
+    <row r="50" spans="1:83" ht="17">
       <c r="A50" s="5" t="s">
         <v>184</v>
       </c>
@@ -4153,7 +4229,7 @@
         <v>43746</v>
       </c>
     </row>
-    <row r="51" spans="1:83">
+    <row r="51" spans="1:83" ht="17">
       <c r="A51" s="5" t="s">
         <v>186</v>
       </c>
@@ -4185,7 +4261,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="52" spans="1:83">
+    <row r="52" spans="1:83" ht="17">
       <c r="A52" s="5" t="s">
         <v>189</v>
       </c>
@@ -4217,7 +4293,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="53" spans="1:83">
+    <row r="53" spans="1:83" ht="17">
       <c r="A53" s="5" t="s">
         <v>193</v>
       </c>
@@ -4249,7 +4325,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="54" spans="1:83">
+    <row r="54" spans="1:83" ht="17">
       <c r="A54" s="5" t="s">
         <v>195</v>
       </c>
@@ -4281,7 +4357,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="55" spans="1:83">
+    <row r="55" spans="1:83" ht="17">
       <c r="A55" s="5" t="s">
         <v>198</v>
       </c>
@@ -4313,7 +4389,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="56" spans="1:83">
+    <row r="56" spans="1:83" ht="17">
       <c r="A56" s="5" t="s">
         <v>201</v>
       </c>
@@ -4345,7 +4421,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="57" spans="1:83">
+    <row r="57" spans="1:83" ht="17">
       <c r="A57" s="5" t="s">
         <v>203</v>
       </c>
@@ -4377,7 +4453,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="58" spans="1:83">
+    <row r="58" spans="1:83" ht="17">
       <c r="A58" s="5" t="s">
         <v>206</v>
       </c>
@@ -4409,7 +4485,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="59" spans="1:83">
+    <row r="59" spans="1:83" ht="17">
       <c r="A59" s="5" t="s">
         <v>210</v>
       </c>
@@ -4441,7 +4517,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="60" spans="1:83">
+    <row r="60" spans="1:83" ht="17">
       <c r="A60" s="5" t="s">
         <v>214</v>
       </c>
@@ -4473,7 +4549,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="61" spans="1:83" s="4" customFormat="1">
+    <row r="61" spans="1:83" s="4" customFormat="1" ht="17">
       <c r="A61" s="14" t="s">
         <v>216</v>
       </c>
@@ -4555,7 +4631,7 @@
       <c r="BI61"/>
       <c r="BJ61"/>
     </row>
-    <row r="62" spans="1:83">
+    <row r="62" spans="1:83" ht="17">
       <c r="A62" s="5" t="s">
         <v>218</v>
       </c>
@@ -4587,7 +4663,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="63" spans="1:83">
+    <row r="63" spans="1:83" ht="17">
       <c r="A63" s="5" t="s">
         <v>222</v>
       </c>
@@ -4619,7 +4695,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="64" spans="1:83">
+    <row r="64" spans="1:83" ht="17">
       <c r="A64" s="5" t="s">
         <v>226</v>
       </c>
@@ -4651,7 +4727,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="65" spans="1:62">
+    <row r="65" spans="1:62" ht="17">
       <c r="A65" s="5" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4759,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="66" spans="1:62">
+    <row r="66" spans="1:62" ht="17">
       <c r="A66" s="5" t="s">
         <v>233</v>
       </c>
@@ -4715,7 +4791,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="67" spans="1:62">
+    <row r="67" spans="1:62" ht="17">
       <c r="A67" s="5" t="s">
         <v>237</v>
       </c>
@@ -4779,7 +4855,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="69" spans="1:62" s="3" customFormat="1">
+    <row r="69" spans="1:62" s="3" customFormat="1" ht="17">
       <c r="A69" s="13" t="s">
         <v>241</v>
       </c>
@@ -4977,7 +5053,7 @@
       <c r="BI71"/>
       <c r="BJ71"/>
     </row>
-    <row r="72" spans="1:62" s="4" customFormat="1">
+    <row r="72" spans="1:62" s="4" customFormat="1" ht="17">
       <c r="A72" s="14" t="s">
         <v>253</v>
       </c>
@@ -5061,7 +5137,7 @@
       <c r="BI72"/>
       <c r="BJ72"/>
     </row>
-    <row r="73" spans="1:62">
+    <row r="73" spans="1:62" ht="17">
       <c r="A73" s="5" t="s">
         <v>258</v>
       </c>
@@ -5093,7 +5169,7 @@
         <v>44147</v>
       </c>
     </row>
-    <row r="74" spans="1:62">
+    <row r="74" spans="1:62" ht="17">
       <c r="A74" s="13" t="s">
         <v>261</v>
       </c>
@@ -5123,7 +5199,7 @@
       </c>
       <c r="J74" s="47"/>
     </row>
-    <row r="75" spans="1:62">
+    <row r="75" spans="1:62" ht="17">
       <c r="A75" s="5" t="s">
         <v>264</v>
       </c>
@@ -5155,7 +5231,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="76" spans="1:62">
+    <row r="76" spans="1:62" ht="17">
       <c r="A76" s="5" t="s">
         <v>267</v>
       </c>
@@ -5187,7 +5263,7 @@
         <v>44160</v>
       </c>
     </row>
-    <row r="77" spans="1:62">
+    <row r="77" spans="1:62" ht="17">
       <c r="A77" s="13" t="s">
         <v>269</v>
       </c>
@@ -5217,7 +5293,7 @@
       </c>
       <c r="J77" s="45"/>
     </row>
-    <row r="78" spans="1:62">
+    <row r="78" spans="1:62" ht="17">
       <c r="A78" s="5" t="s">
         <v>272</v>
       </c>
@@ -5249,7 +5325,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="79" spans="1:62">
+    <row r="79" spans="1:62" ht="17">
       <c r="A79" s="13" t="s">
         <v>274</v>
       </c>
@@ -5279,7 +5355,7 @@
       </c>
       <c r="J79" s="45"/>
     </row>
-    <row r="80" spans="1:62">
+    <row r="80" spans="1:62" ht="17">
       <c r="A80" s="5" t="s">
         <v>278</v>
       </c>
@@ -5311,7 +5387,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="81" spans="1:62">
+    <row r="81" spans="1:62" ht="17">
       <c r="A81" s="5" t="s">
         <v>282</v>
       </c>
@@ -5343,7 +5419,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="82" spans="1:62" s="5" customFormat="1">
+    <row r="82" spans="1:62" s="5" customFormat="1" ht="17">
       <c r="A82" s="5" t="s">
         <v>284</v>
       </c>
@@ -5375,7 +5451,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="83" spans="1:62" s="4" customFormat="1">
+    <row r="83" spans="1:62" s="4" customFormat="1" ht="17">
       <c r="A83" s="14" t="s">
         <v>287</v>
       </c>
@@ -5523,7 +5599,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="86" spans="1:62">
+    <row r="86" spans="1:62" ht="17">
       <c r="A86" s="5" t="s">
         <v>298</v>
       </c>
@@ -5983,7 +6059,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="94" spans="1:62">
+    <row r="94" spans="1:62" ht="17">
       <c r="A94" s="5" t="s">
         <v>321</v>
       </c>
@@ -6099,7 +6175,7 @@
       <c r="BI95"/>
       <c r="BJ95"/>
     </row>
-    <row r="96" spans="1:62">
+    <row r="96" spans="1:62" ht="17">
       <c r="A96" s="5" t="s">
         <v>327</v>
       </c>
@@ -6369,7 +6445,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="103" spans="1:82" s="50" customFormat="1" ht="31">
+    <row r="103" spans="1:82" s="50" customFormat="1" ht="34">
       <c r="A103" s="49" t="s">
         <v>344</v>
       </c>
@@ -6643,7 +6719,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="110" spans="1:82" s="50" customFormat="1" ht="31">
+    <row r="110" spans="1:82" s="50" customFormat="1" ht="34">
       <c r="A110" s="23" t="s">
         <v>363</v>
       </c>
@@ -6843,7 +6919,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="114" spans="1:86" s="35" customFormat="1" ht="31">
+    <row r="114" spans="1:86" s="35" customFormat="1" ht="34">
       <c r="A114" s="23" t="s">
         <v>375</v>
       </c>
@@ -7047,7 +7123,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="118" spans="1:86" s="35" customFormat="1" ht="31">
+    <row r="118" spans="1:86" s="35" customFormat="1" ht="34">
       <c r="A118" s="23" t="s">
         <v>386</v>
       </c>
@@ -8499,6 +8575,294 @@
         <v>471</v>
       </c>
     </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C161" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H161" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J161" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C162" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H162" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J162" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C163" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H163" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J163" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C164" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H164" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I164" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J164" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C165" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E165" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H165" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J165" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E166" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H166" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I166" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J166" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C167" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E167" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H167" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I167" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J167" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="C168" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="E168" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H168" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J168" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C169" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="E169" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H169" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J169" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="14">
@@ -8517,13 +8881,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"CultureHarvestDate"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C82:C96 C99:C114 C120:C1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C72 C82:C96 C99:C114 C120:C160 C162:C1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"F, M"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"SampleSex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E82:E1048576 E77 E2:E10 E12:E72" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E72 E77 E2:E10 E82:E164 E170:E1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"American Indian or Alaska Native, Caucasian, Hispanic, Hispanic (MX), Asian, African american/Black"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0000-000009000000}">

--- a/assets/metadata/latest/PancDB_Donors.xlsx
+++ b/assets/metadata/latest/PancDB_Donors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Library/CloudStorage/Box-Box/HPAP-IBI/Pancdb-Metadata/current_v3.1.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Library/CloudStorage/Box-Box/HPAP-IBI/Pancdb-Metadata/current_v3.1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4A189-E2FD-7B46-8DB7-2396E4332A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E8982-159B-8742-AD45-BB939AC28DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donors" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="513">
   <si>
     <t xml:space="preserve">DonorID </t>
   </si>
@@ -1542,6 +1542,42 @@
   </si>
   <si>
     <t>44yo</t>
+  </si>
+  <si>
+    <t>HPAP-172</t>
+  </si>
+  <si>
+    <t>HPAP-173</t>
+  </si>
+  <si>
+    <t>HPAP-174</t>
+  </si>
+  <si>
+    <t>HPAP-175</t>
+  </si>
+  <si>
+    <t>HPAP-176</t>
+  </si>
+  <si>
+    <t>HPAP-177</t>
+  </si>
+  <si>
+    <t>HPAP-178</t>
+  </si>
+  <si>
+    <t>HPAP-179</t>
+  </si>
+  <si>
+    <t>HPAP-180</t>
+  </si>
+  <si>
+    <t>HPAP-181</t>
+  </si>
+  <si>
+    <t>HPAP-182</t>
+  </si>
+  <si>
+    <t>HPAP-183</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1882,9 +1918,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2201,13 +2234,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH169"/>
+  <dimension ref="A1:CH181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L166" sqref="L166"/>
+      <selection pane="bottomRight" activeCell="M178" sqref="M178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8582,7 +8615,7 @@
       <c r="B161" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="C161" s="60" t="s">
+      <c r="C161" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="21" t="s">
@@ -8614,7 +8647,7 @@
       <c r="B162" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C162" s="60" t="s">
+      <c r="C162" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D162" s="21" t="s">
@@ -8646,7 +8679,7 @@
       <c r="B163" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="C163" s="60" t="s">
+      <c r="C163" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="21" t="s">
@@ -8678,7 +8711,7 @@
       <c r="B164" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C164" s="60" t="s">
+      <c r="C164" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="21" t="s">
@@ -8860,6 +8893,138 @@
         <v>471</v>
       </c>
       <c r="J169" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I170" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J170" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I171" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J171" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I172" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J172" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I173" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J173" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="I174" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J174" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="I175" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J175" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I176" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J176" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I177" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J177" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="I178" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J178" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I179" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J179" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="I180" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J180" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I181" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="J181" s="28" t="s">
         <v>471</v>
       </c>
     </row>

--- a/assets/metadata/latest/PancDB_Donors.xlsx
+++ b/assets/metadata/latest/PancDB_Donors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Library/CloudStorage/Box-Box/HPAP-IBI/Pancdb-Metadata/current_v3.2.4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Desktop/hpap-public/assets/metadata/latest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098D3A6-0502-4A4D-8AB8-889481982309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B8953-738E-904F-8236-8ABF8AA31C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="-10860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="21600" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donors" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="548">
   <si>
     <t xml:space="preserve">DonorID </t>
   </si>
@@ -1617,6 +1617,72 @@
   </si>
   <si>
     <t>Biracial</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701113</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701114</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701115</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701116</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701117</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701118</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701119</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701120</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701121</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRID:SAMN50701123 </t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701124</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701125</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701126</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701127</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701128</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701129</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701130</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701131</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701132</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701133</t>
+  </si>
+  <si>
+    <t>RRID:SAMN50701134</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2327,10 @@
   <dimension ref="A1:CH193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F196" sqref="F196"/>
+      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8925,6 +8991,9 @@
       <c r="A170" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="B170" s="14" t="s">
+        <v>526</v>
+      </c>
       <c r="C170" s="39" t="s">
         <v>12</v>
       </c>
@@ -8954,6 +9023,9 @@
       <c r="A171" s="1" t="s">
         <v>501</v>
       </c>
+      <c r="B171" s="14" t="s">
+        <v>527</v>
+      </c>
       <c r="C171" s="39" t="s">
         <v>12</v>
       </c>
@@ -8983,6 +9055,9 @@
       <c r="A172" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="B172" s="14" t="s">
+        <v>528</v>
+      </c>
       <c r="C172" s="39" t="s">
         <v>33</v>
       </c>
@@ -9012,6 +9087,9 @@
       <c r="A173" s="1" t="s">
         <v>503</v>
       </c>
+      <c r="B173" s="14" t="s">
+        <v>529</v>
+      </c>
       <c r="C173" s="39" t="s">
         <v>33</v>
       </c>
@@ -9041,6 +9119,9 @@
       <c r="A174" s="1" t="s">
         <v>504</v>
       </c>
+      <c r="B174" s="14" t="s">
+        <v>530</v>
+      </c>
       <c r="C174" s="39" t="s">
         <v>12</v>
       </c>
@@ -9070,6 +9151,9 @@
       <c r="A175" s="1" t="s">
         <v>505</v>
       </c>
+      <c r="B175" s="14" t="s">
+        <v>531</v>
+      </c>
       <c r="C175" s="39" t="s">
         <v>33</v>
       </c>
@@ -9099,6 +9183,9 @@
       <c r="A176" s="1" t="s">
         <v>506</v>
       </c>
+      <c r="B176" s="14" t="s">
+        <v>532</v>
+      </c>
       <c r="C176" s="39" t="s">
         <v>33</v>
       </c>
@@ -9128,6 +9215,9 @@
       <c r="A177" s="1" t="s">
         <v>507</v>
       </c>
+      <c r="B177" s="14" t="s">
+        <v>533</v>
+      </c>
       <c r="C177" s="39" t="s">
         <v>33</v>
       </c>
@@ -9157,6 +9247,9 @@
       <c r="A178" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="B178" s="14" t="s">
+        <v>534</v>
+      </c>
       <c r="C178" s="39" t="s">
         <v>12</v>
       </c>
@@ -9186,6 +9279,9 @@
       <c r="A179" s="1" t="s">
         <v>509</v>
       </c>
+      <c r="B179" s="14" t="s">
+        <v>535</v>
+      </c>
       <c r="C179" s="51" t="s">
         <v>12</v>
       </c>
@@ -9215,6 +9311,9 @@
       <c r="A180" s="1" t="s">
         <v>510</v>
       </c>
+      <c r="B180" s="14" t="s">
+        <v>536</v>
+      </c>
       <c r="C180" s="39" t="s">
         <v>33</v>
       </c>
@@ -9244,6 +9343,9 @@
       <c r="A181" s="1" t="s">
         <v>511</v>
       </c>
+      <c r="B181" s="14" t="s">
+        <v>537</v>
+      </c>
       <c r="C181" s="39" t="s">
         <v>33</v>
       </c>
@@ -9273,6 +9375,9 @@
       <c r="A182" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="B182" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="C182" s="39" t="s">
         <v>12</v>
       </c>
@@ -9299,6 +9404,9 @@
       <c r="A183" s="1" t="s">
         <v>514</v>
       </c>
+      <c r="B183" s="14" t="s">
+        <v>539</v>
+      </c>
       <c r="C183" s="39" t="s">
         <v>12</v>
       </c>
@@ -9325,6 +9433,9 @@
       <c r="A184" s="1" t="s">
         <v>515</v>
       </c>
+      <c r="B184" s="14" t="s">
+        <v>540</v>
+      </c>
       <c r="C184" s="39" t="s">
         <v>33</v>
       </c>
@@ -9351,6 +9462,9 @@
       <c r="A185" s="1" t="s">
         <v>516</v>
       </c>
+      <c r="B185" s="14" t="s">
+        <v>541</v>
+      </c>
       <c r="C185" s="39" t="s">
         <v>12</v>
       </c>
@@ -9377,6 +9491,9 @@
       <c r="A186" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="B186" s="14" t="s">
+        <v>542</v>
+      </c>
       <c r="C186" s="39" t="s">
         <v>12</v>
       </c>
@@ -9403,6 +9520,9 @@
       <c r="A187" s="1" t="s">
         <v>518</v>
       </c>
+      <c r="B187" s="14" t="s">
+        <v>543</v>
+      </c>
       <c r="C187" s="39" t="s">
         <v>33</v>
       </c>
@@ -9429,6 +9549,9 @@
       <c r="A188" s="1" t="s">
         <v>519</v>
       </c>
+      <c r="B188" s="14" t="s">
+        <v>544</v>
+      </c>
       <c r="C188" s="39" t="s">
         <v>33</v>
       </c>
@@ -9452,6 +9575,9 @@
       <c r="A189" s="1" t="s">
         <v>520</v>
       </c>
+      <c r="B189" s="14" t="s">
+        <v>545</v>
+      </c>
       <c r="C189" s="39" t="s">
         <v>12</v>
       </c>
@@ -9475,6 +9601,9 @@
       <c r="A190" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="B190" s="14" t="s">
+        <v>546</v>
+      </c>
       <c r="C190" s="39" t="s">
         <v>33</v>
       </c>
@@ -9498,6 +9627,9 @@
       <c r="A191" s="1" t="s">
         <v>522</v>
       </c>
+      <c r="B191" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="C191" s="39" t="s">
         <v>12</v>
       </c>
@@ -9529,7 +9661,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="15">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DonorID"</formula1>
     </dataValidation>
@@ -9551,7 +9683,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"SampleSex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E72 E77 E2:E10 E82:E164 E170:E194 E196:E1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E72 E77 E2:E10 E82:E164 E170:E1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"American Indian or Alaska Native, Caucasian, Hispanic, Hispanic (MX), Asian, African american/Black, Biracial"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0000-000009000000}">
@@ -9572,9 +9704,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{98871B29-57C8-4319-8DAA-5B4C3F03802F}">
       <formula1>"Caucasian, Hispanic, Hispanic (MX), Asian, African american/Black"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E195" xr:uid="{DF15A05D-29E1-234C-9366-591A9DDC3A1A}">
-      <formula1>"American Indian or Alaska Native, Caucasian, Hispanic, Hispanic (MX), Asian, African american/Black, Biracial"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/metadata/latest/PancDB_Donors.xlsx
+++ b/assets/metadata/latest/PancDB_Donors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Desktop/hpap-public/assets/metadata/latest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanjanasamanta/Library/CloudStorage/Box-Box/HPAP-IBI/Pancdb-Metadata/current_v4.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9B8953-738E-904F-8236-8ABF8AA31C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3235D056-7D0E-374A-8B8B-5C98DDB334A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="21600" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32000" yWindow="-10860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donors" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="527">
   <si>
     <t xml:space="preserve">DonorID </t>
   </si>
@@ -1619,70 +1619,7 @@
     <t>Biracial</t>
   </si>
   <si>
-    <t>RRID:SAMN50701113</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701114</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701115</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701116</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701117</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701118</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701119</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701120</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701121</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRID:SAMN50701123 </t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701124</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701125</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701126</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701127</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701128</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701129</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701130</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701131</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701132</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701133</t>
-  </si>
-  <si>
-    <t>RRID:SAMN50701134</t>
+    <t>HPAP-196</t>
   </si>
 </sst>
 </file>
@@ -2324,13 +2261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH193"/>
+  <dimension ref="A1:CH194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7359,7 +7296,7 @@
       <c r="A119" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B119" s="39" t="s">
+      <c r="B119" s="14" t="s">
         <v>413</v>
       </c>
       <c r="C119" s="39" t="s">
@@ -8991,9 +8928,6 @@
       <c r="A170" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B170" s="14" t="s">
-        <v>526</v>
-      </c>
       <c r="C170" s="39" t="s">
         <v>12</v>
       </c>
@@ -9023,9 +8957,6 @@
       <c r="A171" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B171" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="C171" s="39" t="s">
         <v>12</v>
       </c>
@@ -9055,9 +8986,6 @@
       <c r="A172" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B172" s="14" t="s">
-        <v>528</v>
-      </c>
       <c r="C172" s="39" t="s">
         <v>33</v>
       </c>
@@ -9087,9 +9015,6 @@
       <c r="A173" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B173" s="14" t="s">
-        <v>529</v>
-      </c>
       <c r="C173" s="39" t="s">
         <v>33</v>
       </c>
@@ -9119,9 +9044,6 @@
       <c r="A174" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B174" s="14" t="s">
-        <v>530</v>
-      </c>
       <c r="C174" s="39" t="s">
         <v>12</v>
       </c>
@@ -9151,9 +9073,6 @@
       <c r="A175" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B175" s="14" t="s">
-        <v>531</v>
-      </c>
       <c r="C175" s="39" t="s">
         <v>33</v>
       </c>
@@ -9183,9 +9102,6 @@
       <c r="A176" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B176" s="14" t="s">
-        <v>532</v>
-      </c>
       <c r="C176" s="39" t="s">
         <v>33</v>
       </c>
@@ -9215,9 +9131,6 @@
       <c r="A177" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B177" s="14" t="s">
-        <v>533</v>
-      </c>
       <c r="C177" s="39" t="s">
         <v>33</v>
       </c>
@@ -9247,9 +9160,6 @@
       <c r="A178" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B178" s="14" t="s">
-        <v>534</v>
-      </c>
       <c r="C178" s="39" t="s">
         <v>12</v>
       </c>
@@ -9279,9 +9189,6 @@
       <c r="A179" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B179" s="14" t="s">
-        <v>535</v>
-      </c>
       <c r="C179" s="51" t="s">
         <v>12</v>
       </c>
@@ -9311,9 +9218,6 @@
       <c r="A180" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B180" s="14" t="s">
-        <v>536</v>
-      </c>
       <c r="C180" s="39" t="s">
         <v>33</v>
       </c>
@@ -9343,9 +9247,6 @@
       <c r="A181" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B181" s="14" t="s">
-        <v>537</v>
-      </c>
       <c r="C181" s="39" t="s">
         <v>33</v>
       </c>
@@ -9375,9 +9276,6 @@
       <c r="A182" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B182" s="14" t="s">
-        <v>538</v>
-      </c>
       <c r="C182" s="39" t="s">
         <v>12</v>
       </c>
@@ -9397,6 +9295,9 @@
         <v>24</v>
       </c>
       <c r="I182" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J182" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9404,9 +9305,6 @@
       <c r="A183" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B183" s="14" t="s">
-        <v>539</v>
-      </c>
       <c r="C183" s="39" t="s">
         <v>12</v>
       </c>
@@ -9426,6 +9324,9 @@
         <v>17</v>
       </c>
       <c r="I183" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J183" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9433,9 +9334,6 @@
       <c r="A184" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B184" s="14" t="s">
-        <v>540</v>
-      </c>
       <c r="C184" s="39" t="s">
         <v>33</v>
       </c>
@@ -9455,6 +9353,9 @@
         <v>24</v>
       </c>
       <c r="I184" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J184" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9462,9 +9363,6 @@
       <c r="A185" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B185" s="14" t="s">
-        <v>541</v>
-      </c>
       <c r="C185" s="39" t="s">
         <v>12</v>
       </c>
@@ -9484,6 +9382,9 @@
         <v>17</v>
       </c>
       <c r="I185" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J185" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9491,9 +9392,6 @@
       <c r="A186" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B186" s="14" t="s">
-        <v>542</v>
-      </c>
       <c r="C186" s="39" t="s">
         <v>12</v>
       </c>
@@ -9513,6 +9411,9 @@
         <v>24</v>
       </c>
       <c r="I186" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J186" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9520,9 +9421,6 @@
       <c r="A187" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B187" s="14" t="s">
-        <v>543</v>
-      </c>
       <c r="C187" s="39" t="s">
         <v>33</v>
       </c>
@@ -9542,6 +9440,9 @@
         <v>17</v>
       </c>
       <c r="I187" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J187" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9549,9 +9450,6 @@
       <c r="A188" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B188" s="14" t="s">
-        <v>544</v>
-      </c>
       <c r="C188" s="39" t="s">
         <v>33</v>
       </c>
@@ -9569,15 +9467,18 @@
       </c>
       <c r="H188" s="39" t="s">
         <v>24</v>
+      </c>
+      <c r="I188" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J188" s="17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B189" s="14" t="s">
-        <v>545</v>
-      </c>
       <c r="C189" s="39" t="s">
         <v>12</v>
       </c>
@@ -9595,15 +9496,18 @@
       </c>
       <c r="H189" s="39" t="s">
         <v>17</v>
+      </c>
+      <c r="I189" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J189" s="17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B190" s="14" t="s">
-        <v>546</v>
-      </c>
       <c r="C190" s="39" t="s">
         <v>33</v>
       </c>
@@ -9621,15 +9525,18 @@
       </c>
       <c r="H190" s="39" t="s">
         <v>17</v>
+      </c>
+      <c r="I190" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J190" s="17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B191" s="14" t="s">
-        <v>547</v>
-      </c>
       <c r="C191" s="39" t="s">
         <v>12</v>
       </c>
@@ -9647,16 +9554,75 @@
       </c>
       <c r="H191" s="39" t="s">
         <v>17</v>
+      </c>
+      <c r="I191" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J191" s="17" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="C192" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="G192" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="H192" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I192" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J192" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="s">
         <v>524</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H193" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I193" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J193" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
